--- a/raw_data/ADA-USD_4h_process.xlsx
+++ b/raw_data/ADA-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.6353825330734253</v>
+        <v>0.5627674460411072</v>
       </c>
       <c r="C2">
-        <v>0.6428681015968323</v>
+        <v>0.5691970586776733</v>
       </c>
       <c r="D2">
-        <v>0.6322060227394104</v>
+        <v>0.5497382879257202</v>
       </c>
       <c r="E2">
-        <v>0.6334995031356812</v>
+        <v>0.5566073656082153</v>
       </c>
       <c r="F2">
-        <v>20750784</v>
+        <v>45676032</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0.633660614490509</v>
+        <v>0.5566003918647766</v>
       </c>
       <c r="C3">
-        <v>0.65981125831604</v>
+        <v>0.5627994537353516</v>
       </c>
       <c r="D3">
-        <v>0.6336077451705933</v>
+        <v>0.5553270578384399</v>
       </c>
       <c r="E3">
-        <v>0.6582486033439636</v>
+        <v>0.55727219581604</v>
       </c>
       <c r="F3">
-        <v>172184384</v>
+        <v>2832256</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>0.6583420634269714</v>
+        <v>0.5572771430015564</v>
       </c>
       <c r="C4">
-        <v>0.6754502058029175</v>
+        <v>0.5635312795639038</v>
       </c>
       <c r="D4">
-        <v>0.643471896648407</v>
+        <v>0.5528516173362732</v>
       </c>
       <c r="E4">
-        <v>0.6629819869995117</v>
+        <v>0.5603247880935669</v>
       </c>
       <c r="F4">
-        <v>226201792</v>
+        <v>29725696</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.6630386114120483</v>
+        <v>0.5603055357933044</v>
       </c>
       <c r="C5">
-        <v>0.6630386114120483</v>
+        <v>0.5651838183403015</v>
       </c>
       <c r="D5">
-        <v>0.6459591388702393</v>
+        <v>0.5578670501708984</v>
       </c>
       <c r="E5">
-        <v>0.6469323039054871</v>
+        <v>0.5578670501708984</v>
       </c>
       <c r="F5">
-        <v>37425280</v>
+        <v>7874432</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>0.64686518907547</v>
+        <v>0.5574049949645996</v>
       </c>
       <c r="C6">
-        <v>0.6491051912307739</v>
+        <v>0.5690547823905945</v>
       </c>
       <c r="D6">
-        <v>0.6119707226753235</v>
+        <v>0.5532001852989197</v>
       </c>
       <c r="E6">
-        <v>0.6172319650650024</v>
+        <v>0.5593151450157166</v>
       </c>
       <c r="F6">
-        <v>88141824</v>
+        <v>50773376</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,16 +1114,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.6172114014625549</v>
+        <v>0.5592460632324219</v>
       </c>
       <c r="C7">
-        <v>0.6359887719154358</v>
+        <v>0.5769314765930176</v>
       </c>
       <c r="D7">
-        <v>0.6129681468009949</v>
+        <v>0.5583388805389404</v>
       </c>
       <c r="E7">
-        <v>0.6278945803642273</v>
+        <v>0.5750361084938049</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.6277297735214233</v>
+        <v>0.5751473307609558</v>
       </c>
       <c r="C8">
-        <v>0.6277297735214233</v>
+        <v>0.5756158828735352</v>
       </c>
       <c r="D8">
-        <v>0.6158159971237183</v>
+        <v>0.5692931413650513</v>
       </c>
       <c r="E8">
-        <v>0.6173498034477234</v>
+        <v>0.5727503895759583</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0.61740642786026</v>
+        <v>0.5727977156639099</v>
       </c>
       <c r="C9">
-        <v>0.6203235983848572</v>
+        <v>0.5777654647827148</v>
       </c>
       <c r="D9">
-        <v>0.6020053029060364</v>
+        <v>0.5701447129249573</v>
       </c>
       <c r="E9">
-        <v>0.6149410605430603</v>
+        <v>0.570539116859436</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>487936</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.6149817705154419</v>
+        <v>0.570543110370636</v>
       </c>
       <c r="C10">
-        <v>0.6203177571296692</v>
+        <v>0.572709321975708</v>
       </c>
       <c r="D10">
-        <v>0.6094222068786621</v>
+        <v>0.5523681044578552</v>
       </c>
       <c r="E10">
-        <v>0.6094222068786621</v>
+        <v>0.5531936287879944</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>42504704</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.6094027161598206</v>
+        <v>0.5532192587852478</v>
       </c>
       <c r="C11">
-        <v>0.624990701675415</v>
+        <v>0.5569185018539429</v>
       </c>
       <c r="D11">
-        <v>0.6091458797454834</v>
+        <v>0.5511549711227417</v>
       </c>
       <c r="E11">
-        <v>0.6230848431587219</v>
+        <v>0.5539980530738831</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>7565952</v>
       </c>
       <c r="L11">
-        <v>45.34864502553271</v>
+        <v>39.45107045749283</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,25 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.6231230497360229</v>
+        <v>0.5539913773536682</v>
       </c>
       <c r="C12">
-        <v>0.6252240538597107</v>
+        <v>0.5576367378234863</v>
       </c>
       <c r="D12">
-        <v>0.6039734482765198</v>
+        <v>0.543093204498291</v>
       </c>
       <c r="E12">
-        <v>0.6045277118682861</v>
+        <v>0.5431194305419922</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6104576</v>
       </c>
       <c r="L12">
-        <v>35.00527496908615</v>
+        <v>28.77903425537222</v>
+      </c>
+      <c r="N12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1243,25 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.6047099232673645</v>
+        <v>0.5429272651672363</v>
       </c>
       <c r="C13">
-        <v>0.6092937588691711</v>
+        <v>0.5452916622161865</v>
       </c>
       <c r="D13">
-        <v>0.5989838838577271</v>
+        <v>0.5298174023628235</v>
       </c>
       <c r="E13">
-        <v>0.6090954542160034</v>
+        <v>0.5308994054794312</v>
       </c>
       <c r="F13">
-        <v>13737792</v>
+        <v>35272192</v>
       </c>
       <c r="L13">
-        <v>38.86645965916529</v>
+        <v>21.44723557538421</v>
+      </c>
+      <c r="N13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1269,25 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.6090394854545593</v>
+        <v>0.5311967134475708</v>
       </c>
       <c r="C14">
-        <v>0.6090394854545593</v>
+        <v>0.534013032913208</v>
       </c>
       <c r="D14">
-        <v>0.5959479808807373</v>
+        <v>0.5266715884208679</v>
       </c>
       <c r="E14">
-        <v>0.6084418892860413</v>
+        <v>0.529251754283905</v>
       </c>
       <c r="F14">
-        <v>9225280</v>
+        <v>27909568</v>
       </c>
       <c r="L14">
-        <v>38.49831051128888</v>
+        <v>20.64926899915676</v>
+      </c>
+      <c r="N14" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1295,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>0.6085101366043091</v>
+        <v>0.5292233228683472</v>
       </c>
       <c r="C15">
-        <v>0.6127647161483765</v>
+        <v>0.5410041809082031</v>
       </c>
       <c r="D15">
-        <v>0.6042304039001465</v>
+        <v>0.5291720032691956</v>
       </c>
       <c r="E15">
-        <v>0.6059207320213318</v>
+        <v>0.5410041809082031</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>10613248</v>
       </c>
       <c r="L15">
-        <v>36.97825667776232</v>
+        <v>38.89317710063976</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,516 +1318,528 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.6058806180953979</v>
+        <v>0.541308581829071</v>
       </c>
       <c r="C16">
-        <v>0.6096252799034119</v>
+        <v>0.5422122478485107</v>
       </c>
       <c r="D16">
-        <v>0.6043637990951538</v>
+        <v>0.5346270203590393</v>
       </c>
       <c r="E16">
-        <v>0.6043637990951538</v>
+        <v>0.5351376533508301</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>89920</v>
       </c>
       <c r="L16">
-        <v>35.99099198980829</v>
+        <v>34.44575144901326</v>
       </c>
       <c r="M16">
-        <v>37.31422712237604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>35.23843793070323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.6042799353599548</v>
+        <v>0.5351115465164185</v>
       </c>
       <c r="C17">
-        <v>0.6042959690093994</v>
+        <v>0.5355589985847473</v>
       </c>
       <c r="D17">
-        <v>0.5951862335205078</v>
+        <v>0.5095345377922058</v>
       </c>
       <c r="E17">
-        <v>0.5997698307037354</v>
+        <v>0.5172370672225952</v>
       </c>
       <c r="F17">
-        <v>3712960</v>
+        <v>64317696</v>
       </c>
       <c r="L17">
-        <v>33.06095447780884</v>
+        <v>24.73607556112916</v>
       </c>
       <c r="M17">
-        <v>35.14786559836555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>26.84763204042615</v>
+      </c>
+      <c r="N17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.5997650027275085</v>
+        <v>0.5174230337142944</v>
       </c>
       <c r="C18">
-        <v>0.6109461784362793</v>
+        <v>0.523429274559021</v>
       </c>
       <c r="D18">
-        <v>0.5995134711265564</v>
+        <v>0.5155569314956665</v>
       </c>
       <c r="E18">
-        <v>0.6097118854522705</v>
+        <v>0.5209125280380249</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>6649664</v>
       </c>
       <c r="L18">
-        <v>44.13401117865372</v>
+        <v>29.33713038189834</v>
       </c>
       <c r="M18">
-        <v>42.87714833539163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>30.50660967252396</v>
+      </c>
+      <c r="N18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>0.6096168160438538</v>
+        <v>0.520931601524353</v>
       </c>
       <c r="C19">
-        <v>0.6121401786804199</v>
+        <v>0.5291575789451599</v>
       </c>
       <c r="D19">
-        <v>0.6073012948036194</v>
+        <v>0.5189780592918396</v>
       </c>
       <c r="E19">
-        <v>0.6081172227859497</v>
+        <v>0.5264695882797241</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>42.85482736003409</v>
+        <v>35.99270910138916</v>
       </c>
       <c r="M19">
-        <v>42.0122438343609</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>35.74007745048904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.6081093549728394</v>
+        <v>0.5263993740081787</v>
       </c>
       <c r="C20">
-        <v>0.6093491911888123</v>
+        <v>0.5289371013641357</v>
       </c>
       <c r="D20">
-        <v>0.6006770730018616</v>
+        <v>0.5218154788017273</v>
       </c>
       <c r="E20">
-        <v>0.6020702123641968</v>
+        <v>0.5222573280334473</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>38.13904471337429</v>
+        <v>33.31674814162105</v>
       </c>
       <c r="M20">
-        <v>38.81484580851297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>33.67019150710237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>0.6018978953361511</v>
+        <v>0.5223416686058044</v>
       </c>
       <c r="C21">
-        <v>0.6049119830131531</v>
+        <v>0.5275664925575256</v>
       </c>
       <c r="D21">
-        <v>0.5973170399665833</v>
+        <v>0.5172984004020691</v>
       </c>
       <c r="E21">
-        <v>0.6000009179115295</v>
+        <v>0.5226488709449768</v>
       </c>
       <c r="F21">
-        <v>2758336</v>
+        <v>274944</v>
       </c>
       <c r="H21">
-        <v>0.6181803256273269</v>
+        <v>0.5452920824289322</v>
       </c>
       <c r="L21">
-        <v>36.58901902794653</v>
+        <v>33.8311887723422</v>
       </c>
       <c r="M21">
-        <v>37.75590432539816</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>34.05252115521746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>0.6001235842704773</v>
+        <v>0.5231689214706421</v>
       </c>
       <c r="C22">
-        <v>0.6092148423194885</v>
+        <v>0.5288989543914795</v>
       </c>
       <c r="D22">
-        <v>0.6001235842704773</v>
+        <v>0.5196067690849304</v>
       </c>
       <c r="E22">
-        <v>0.6070584654808044</v>
+        <v>0.5216256976127625</v>
       </c>
       <c r="F22">
-        <v>9763872</v>
+        <v>6341216</v>
       </c>
       <c r="G22">
-        <v>0.6176507132393974</v>
+        <v>0.5441651117234003</v>
       </c>
       <c r="H22">
-        <v>0.6168582737445831</v>
+        <v>0.5435429990291596</v>
       </c>
       <c r="L22">
-        <v>45.14328797785326</v>
+        <v>33.08091734987619</v>
       </c>
       <c r="M22">
-        <v>43.42501277350149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>33.50896455758539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>0.6070711612701416</v>
+        <v>0.5216336250305176</v>
       </c>
       <c r="C23">
-        <v>0.6090956330299377</v>
+        <v>0.5285524129867554</v>
       </c>
       <c r="D23">
-        <v>0.604245126247406</v>
+        <v>0.5216336250305176</v>
       </c>
       <c r="E23">
-        <v>0.6053730249404907</v>
+        <v>0.5270431637763977</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1266528</v>
       </c>
       <c r="G23">
-        <v>0.6165345597576786</v>
+        <v>0.5426085710009455</v>
       </c>
       <c r="H23">
-        <v>0.6142144948244095</v>
+        <v>0.5420315474271774</v>
       </c>
       <c r="L23">
-        <v>43.5643614350719</v>
+        <v>40.88939018339971</v>
       </c>
       <c r="M23">
-        <v>42.43110687121747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>39.05596714165873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0.6053541898727417</v>
+        <v>0.5270838141441345</v>
       </c>
       <c r="C24">
-        <v>0.6081036329269409</v>
+        <v>0.5295055508613586</v>
       </c>
       <c r="D24">
-        <v>0.6010684967041016</v>
+        <v>0.5192576050758362</v>
       </c>
       <c r="E24">
-        <v>0.6013191938400269</v>
+        <v>0.5211132764816284</v>
       </c>
       <c r="F24">
-        <v>13107680</v>
+        <v>3818656</v>
       </c>
       <c r="G24">
-        <v>0.6151513446742556</v>
+        <v>0.5406544533173712</v>
       </c>
       <c r="H24">
-        <v>0.6111313551664352</v>
+        <v>0.5400709718465805</v>
       </c>
       <c r="L24">
-        <v>39.79789915767831</v>
+        <v>35.75224130840816</v>
       </c>
       <c r="M24">
-        <v>40.05637873872843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>35.55908669232944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>0.6012972593307495</v>
+        <v>0.5211014747619629</v>
       </c>
       <c r="C25">
-        <v>0.6038302183151245</v>
+        <v>0.5249760746955872</v>
       </c>
       <c r="D25">
-        <v>0.5996468067169189</v>
+        <v>0.5147705078125</v>
       </c>
       <c r="E25">
-        <v>0.6003323197364807</v>
+        <v>0.5153355002403259</v>
       </c>
       <c r="F25">
-        <v>3400928</v>
+        <v>2625056</v>
       </c>
       <c r="G25">
-        <v>0.6138041605890032</v>
+        <v>0.538352730310367</v>
       </c>
       <c r="H25">
-        <v>0.6088013559579849</v>
+        <v>0.5379443943500519</v>
       </c>
       <c r="L25">
-        <v>38.87734883183523</v>
+        <v>31.42462784395073</v>
       </c>
       <c r="M25">
-        <v>39.47714209688877</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>32.50524965982044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>0.6003231406211853</v>
+        <v>0.5153129100799561</v>
       </c>
       <c r="C26">
-        <v>0.6037366390228271</v>
+        <v>0.5193930864334106</v>
       </c>
       <c r="D26">
-        <v>0.5883332490921021</v>
+        <v>0.5116251707077026</v>
       </c>
       <c r="E26">
-        <v>0.5940980911254883</v>
+        <v>0.5174725651741028</v>
       </c>
       <c r="F26">
-        <v>50939840</v>
+        <v>3599488</v>
       </c>
       <c r="G26">
-        <v>0.6120126997286837</v>
+        <v>0.5364545334797975</v>
       </c>
       <c r="H26">
-        <v>0.6076446622610092</v>
+        <v>0.5358522653579711</v>
       </c>
       <c r="L26">
-        <v>33.38875484229187</v>
+        <v>34.71300333753495</v>
       </c>
       <c r="M26">
-        <v>35.94136733205492</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>34.73778703580722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>0.594187319278717</v>
+        <v>0.5174708962440491</v>
       </c>
       <c r="C27">
-        <v>0.6025606393814087</v>
+        <v>0.5180991291999817</v>
       </c>
       <c r="D27">
-        <v>0.5938553810119629</v>
+        <v>0.4903057515621185</v>
       </c>
       <c r="E27">
-        <v>0.5962573289871216</v>
+        <v>0.494163453578949</v>
       </c>
       <c r="F27">
-        <v>8639616</v>
+        <v>56793696</v>
       </c>
       <c r="G27">
-        <v>0.6105803932976325</v>
+        <v>0.5326098898524476</v>
       </c>
       <c r="H27">
-        <v>0.6060627996921539</v>
+        <v>0.5318086326122284</v>
       </c>
       <c r="L27">
-        <v>36.86192519364732</v>
+        <v>21.85404874802368</v>
       </c>
       <c r="M27">
-        <v>38.01221176123743</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>25.01772166299665</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.5962820053100586</v>
+        <v>0.4942227900028229</v>
       </c>
       <c r="C28">
-        <v>0.5993345975875854</v>
+        <v>0.4981565773487091</v>
       </c>
       <c r="D28">
-        <v>0.5927391052246094</v>
+        <v>0.4681862592697143</v>
       </c>
       <c r="E28">
-        <v>0.5993345975875854</v>
+        <v>0.4757017791271209</v>
       </c>
       <c r="F28">
-        <v>4508288</v>
+        <v>121778848</v>
       </c>
       <c r="G28">
-        <v>0.6095580482330827</v>
+        <v>0.5274364252410543</v>
       </c>
       <c r="H28">
-        <v>0.605162039399147</v>
+        <v>0.5269562020897866</v>
       </c>
       <c r="L28">
-        <v>41.73293616739091</v>
+        <v>16.43070097706837</v>
       </c>
       <c r="M28">
-        <v>40.94239797359203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>20.19725183566477</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.5993308424949646</v>
+        <v>0.475711852312088</v>
       </c>
       <c r="C29">
-        <v>0.6039766669273376</v>
+        <v>0.4932914972305298</v>
       </c>
       <c r="D29">
-        <v>0.598477303981781</v>
+        <v>0.4732333421707153</v>
       </c>
       <c r="E29">
-        <v>0.6028335094451904</v>
+        <v>0.4898707270622253</v>
       </c>
       <c r="F29">
-        <v>2423360</v>
+        <v>50243616</v>
       </c>
       <c r="G29">
-        <v>0.6089467265250924</v>
+        <v>0.5240213617702516</v>
       </c>
       <c r="H29">
-        <v>0.6045566618442535</v>
+        <v>0.522922782599926</v>
       </c>
       <c r="L29">
-        <v>46.96650719559572</v>
+        <v>31.17714397511636</v>
       </c>
       <c r="M29">
-        <v>44.17371865175301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>31.16030998788615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.6031101942062378</v>
+        <v>0.4898402690887451</v>
       </c>
       <c r="C30">
-        <v>0.6065377593040466</v>
+        <v>0.4985911250114441</v>
       </c>
       <c r="D30">
-        <v>0.6016231179237366</v>
+        <v>0.486789345741272</v>
       </c>
       <c r="E30">
-        <v>0.605720043182373</v>
+        <v>0.4985911250114441</v>
       </c>
       <c r="F30">
-        <v>1445696</v>
+        <v>15117056</v>
       </c>
       <c r="G30">
-        <v>0.6086533916757543</v>
+        <v>0.5217095220649054</v>
       </c>
       <c r="H30">
-        <v>0.6043715536594391</v>
+        <v>0.5201926574110984</v>
       </c>
       <c r="L30">
-        <v>51.04732821072418</v>
+        <v>38.67026623276845</v>
       </c>
       <c r="M30">
-        <v>46.76167503603087</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>36.90531036822652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>0.6058607697486877</v>
+        <v>0.4988486170768738</v>
       </c>
       <c r="C31">
-        <v>0.6173164844512939</v>
+        <v>0.5133693814277649</v>
       </c>
       <c r="D31">
-        <v>0.6034478545188904</v>
+        <v>0.4988486170768738</v>
       </c>
       <c r="E31">
-        <v>0.6173164844512939</v>
+        <v>0.5119776129722595</v>
       </c>
       <c r="F31">
-        <v>26909760</v>
+        <v>68100224</v>
       </c>
       <c r="G31">
-        <v>0.6094409455644397</v>
+        <v>0.520824803056483</v>
       </c>
       <c r="H31">
-        <v>0.6040831357240677</v>
+        <v>0.5180916354060173</v>
       </c>
       <c r="I31">
-        <v>0.6131083190441131</v>
+        <v>0.532624551653862</v>
       </c>
       <c r="L31">
-        <v>63.67888989675242</v>
+        <v>48.37668241679909</v>
       </c>
       <c r="M31">
-        <v>55.65553779274886</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>44.5547641037504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>0.6174387335777283</v>
+        <v>0.5120114088058472</v>
       </c>
       <c r="C32">
-        <v>0.623812198638916</v>
+        <v>0.5414561033248901</v>
       </c>
       <c r="D32">
-        <v>0.6150414943695068</v>
+        <v>0.5088875889778137</v>
       </c>
       <c r="E32">
-        <v>0.6230932474136353</v>
+        <v>0.5414561033248901</v>
       </c>
       <c r="F32">
-        <v>3162656</v>
+        <v>118564672</v>
       </c>
       <c r="G32">
-        <v>0.6106820639143665</v>
+        <v>0.5227003758081564</v>
       </c>
       <c r="H32">
-        <v>0.6050114125013352</v>
+        <v>0.5180084690451622</v>
       </c>
       <c r="I32">
-        <v>0.6127614438533783</v>
+        <v>0.5321195095777511</v>
       </c>
       <c r="L32">
-        <v>68.26764876643243</v>
+        <v>62.91651677858471</v>
       </c>
       <c r="M32">
-        <v>59.30286229658178</v>
+        <v>56.9362491725412</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1826,37 +1847,34 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>0.6231405735015869</v>
+        <v>0.5414705872535706</v>
       </c>
       <c r="C33">
-        <v>0.6367039084434509</v>
+        <v>0.542901873588562</v>
       </c>
       <c r="D33">
-        <v>0.6231405735015869</v>
+        <v>0.5342634320259094</v>
       </c>
       <c r="E33">
-        <v>0.6302406191825867</v>
+        <v>0.5409142971038818</v>
       </c>
       <c r="F33">
-        <v>66483008</v>
+        <v>30081344</v>
       </c>
       <c r="G33">
-        <v>0.6124601143932955</v>
+        <v>0.5243561868350406</v>
       </c>
       <c r="H33">
-        <v>0.6060686707496643</v>
+        <v>0.5185092136263847</v>
       </c>
       <c r="I33">
-        <v>0.6118278443813324</v>
+        <v>0.5315742462873458</v>
       </c>
       <c r="L33">
-        <v>73.01334120467475</v>
+        <v>62.55222649186418</v>
       </c>
       <c r="M33">
-        <v>63.32245274572202</v>
-      </c>
-      <c r="O33" t="s">
-        <v>195</v>
+        <v>56.68569283411637</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1864,34 +1882,34 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>0.6302681565284729</v>
+        <v>0.5410723686218262</v>
       </c>
       <c r="C34">
-        <v>0.6306418776512146</v>
+        <v>0.5425848364830017</v>
       </c>
       <c r="D34">
-        <v>0.6234692335128784</v>
+        <v>0.5278065800666809</v>
       </c>
       <c r="E34">
-        <v>0.6279998421669006</v>
+        <v>0.5279685258865356</v>
       </c>
       <c r="F34">
-        <v>27896224</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.6138728169181688</v>
+        <v>0.5246845812942674</v>
       </c>
       <c r="H34">
-        <v>0.6070465683937073</v>
+        <v>0.5184450522065163</v>
       </c>
       <c r="I34">
-        <v>0.610661772886912</v>
+        <v>0.5304957042137782</v>
       </c>
       <c r="L34">
-        <v>69.35503444901649</v>
+        <v>54.12780983493608</v>
       </c>
       <c r="M34">
-        <v>61.27899106452698</v>
+        <v>50.9197369463168</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -1899,34 +1917,34 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.6279459595680237</v>
+        <v>0.5279412865638733</v>
       </c>
       <c r="C35">
-        <v>0.6336621046066284</v>
+        <v>0.5349591970443726</v>
       </c>
       <c r="D35">
-        <v>0.6249131560325623</v>
+        <v>0.5276155471801758</v>
       </c>
       <c r="E35">
-        <v>0.6262468695640564</v>
+        <v>0.5308204293251038</v>
       </c>
       <c r="F35">
-        <v>50635744</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.6149977307950676</v>
+        <v>0.5252423856607071</v>
       </c>
       <c r="H35">
-        <v>0.6080628752708435</v>
+        <v>0.5179358646273613</v>
       </c>
       <c r="I35">
-        <v>0.6099722584088644</v>
+        <v>0.529594150185585</v>
       </c>
       <c r="L35">
-        <v>66.4258673984737</v>
+        <v>55.60946406561131</v>
       </c>
       <c r="M35">
-        <v>59.65706219803419</v>
+        <v>52.07622317579714</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1934,34 +1952,34 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.6262526512145996</v>
+        <v>0.5307328701019287</v>
       </c>
       <c r="C36">
-        <v>0.6280514001846313</v>
+        <v>0.5307328701019287</v>
       </c>
       <c r="D36">
-        <v>0.6113970875740051</v>
+        <v>0.5163861513137817</v>
       </c>
       <c r="E36">
-        <v>0.6149494051933289</v>
+        <v>0.5216113328933716</v>
       </c>
       <c r="F36">
-        <v>43344896</v>
+        <v>15510656</v>
       </c>
       <c r="G36">
-        <v>0.6149933375585458</v>
+        <v>0.5249122899545857</v>
       </c>
       <c r="H36">
-        <v>0.6085921555757523</v>
+        <v>0.5172595486044884</v>
       </c>
       <c r="I36">
-        <v>0.6098961730798086</v>
+        <v>0.5283373564481735</v>
       </c>
       <c r="L36">
-        <v>50.85375447026654</v>
+        <v>49.76967788961887</v>
       </c>
       <c r="M36">
-        <v>50.3987738465017</v>
+        <v>48.13222748317878</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -1969,34 +1987,34 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.6147465109825134</v>
+        <v>0.5217654705047607</v>
       </c>
       <c r="C37">
-        <v>0.6180086135864258</v>
+        <v>0.5240562558174133</v>
       </c>
       <c r="D37">
-        <v>0.6126652956008911</v>
+        <v>0.5081546306610107</v>
       </c>
       <c r="E37">
-        <v>0.6144997477531433</v>
+        <v>0.5105543732643127</v>
       </c>
       <c r="F37">
-        <v>5651072</v>
+        <v>36744640</v>
       </c>
       <c r="G37">
-        <v>0.6149484657580546</v>
+        <v>0.5236070248009246</v>
       </c>
       <c r="H37">
-        <v>0.6093286514282227</v>
+        <v>0.5169254139065742</v>
       </c>
       <c r="I37">
-        <v>0.6094496786594391</v>
+        <v>0.5261879652738571</v>
       </c>
       <c r="L37">
-        <v>50.32548970357988</v>
+        <v>43.58700225110928</v>
       </c>
       <c r="M37">
-        <v>50.06573497753226</v>
+        <v>43.83920638675709</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2004,34 +2022,34 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>0.6144471764564514</v>
+        <v>0.5104387998580933</v>
       </c>
       <c r="C38">
-        <v>0.6174989342689514</v>
+        <v>0.5114173293113708</v>
       </c>
       <c r="D38">
-        <v>0.6035683751106262</v>
+        <v>0.5038369297981262</v>
       </c>
       <c r="E38">
-        <v>0.605704128742218</v>
+        <v>0.5054876208305359</v>
       </c>
       <c r="F38">
-        <v>33696192</v>
+        <v>2350656</v>
       </c>
       <c r="G38">
-        <v>0.6141080714838877</v>
+        <v>0.521959806258162</v>
       </c>
       <c r="H38">
-        <v>0.60912826359272</v>
+        <v>0.5161541685461998</v>
       </c>
       <c r="I38">
-        <v>0.6090614895025889</v>
+        <v>0.5239458729823431</v>
       </c>
       <c r="L38">
-        <v>40.96183876326685</v>
+        <v>40.96364912932253</v>
       </c>
       <c r="M38">
-        <v>43.94809004582253</v>
+        <v>41.99095329820797</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2039,34 +2057,34 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0.6056689023971558</v>
+        <v>0.5055054426193237</v>
       </c>
       <c r="C39">
-        <v>0.6129769086837769</v>
+        <v>0.5154960155487061</v>
       </c>
       <c r="D39">
-        <v>0.6050308346748352</v>
+        <v>0.498998075723648</v>
       </c>
       <c r="E39">
-        <v>0.6087943315505981</v>
+        <v>0.5114789605140686</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>127218336</v>
       </c>
       <c r="G39">
-        <v>0.613625004217225</v>
+        <v>0.521007002099608</v>
       </c>
       <c r="H39">
-        <v>0.6091621190309524</v>
+        <v>0.5154046371579171</v>
       </c>
       <c r="I39">
-        <v>0.6088565985361735</v>
+        <v>0.5219772011041641</v>
       </c>
       <c r="L39">
-        <v>45.00614875758988</v>
+        <v>45.34003756905497</v>
       </c>
       <c r="M39">
-        <v>46.42500484616347</v>
+        <v>44.94666022158015</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2074,34 +2092,34 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>0.6088617444038391</v>
+        <v>0.511591374874115</v>
       </c>
       <c r="C40">
-        <v>0.6173749566078186</v>
+        <v>0.5173238515853882</v>
       </c>
       <c r="D40">
-        <v>0.6088617444038391</v>
+        <v>0.5115428566932678</v>
       </c>
       <c r="E40">
-        <v>0.6108558773994446</v>
+        <v>0.5131652355194092</v>
       </c>
       <c r="F40">
-        <v>10650048</v>
+        <v>739200</v>
       </c>
       <c r="G40">
-        <v>0.6133732654156087</v>
+        <v>0.5202941142286809</v>
       </c>
       <c r="H40">
-        <v>0.6096014022827149</v>
+        <v>0.5149500325322152</v>
       </c>
       <c r="I40">
-        <v>0.6089043875535329</v>
+        <v>0.5206429213285446</v>
       </c>
       <c r="L40">
-        <v>47.69527431448092</v>
+        <v>46.59360190502651</v>
       </c>
       <c r="M40">
-        <v>48.07354682366553</v>
+        <v>45.78396303846993</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2109,34 +2127,34 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>0.610474169254303</v>
+        <v>0.5131601095199585</v>
       </c>
       <c r="C41">
-        <v>0.6179617643356323</v>
+        <v>0.51787269115448</v>
       </c>
       <c r="D41">
-        <v>0.5975489020347595</v>
+        <v>0.5077016949653625</v>
       </c>
       <c r="E41">
-        <v>0.5975927114486694</v>
+        <v>0.5079012513160706</v>
       </c>
       <c r="F41">
-        <v>38904320</v>
+        <v>5816640</v>
       </c>
       <c r="G41">
-        <v>0.6119386696004324</v>
+        <v>0.5191674903275345</v>
       </c>
       <c r="H41">
-        <v>0.6094809919595718</v>
+        <v>0.5142126515507698</v>
       </c>
       <c r="I41">
-        <v>0.6080546498298645</v>
+        <v>0.5191063612699509</v>
       </c>
       <c r="L41">
-        <v>35.22757283492981</v>
+        <v>43.12063130724284</v>
       </c>
       <c r="M41">
-        <v>39.62557693404199</v>
+        <v>43.55692833162931</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2144,37 +2162,34 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>0.5967690944671631</v>
+        <v>0.5079145431518555</v>
       </c>
       <c r="C42">
-        <v>0.5967690944671631</v>
+        <v>0.5180335640907288</v>
       </c>
       <c r="D42">
-        <v>0.5251392126083374</v>
+        <v>0.5006838440895081</v>
       </c>
       <c r="E42">
-        <v>0.5623266100883484</v>
+        <v>0.5131444931030273</v>
       </c>
       <c r="F42">
-        <v>488298112</v>
+        <v>17277568</v>
       </c>
       <c r="G42">
-        <v>0.6074284823720612</v>
+        <v>0.5186199451253065</v>
       </c>
       <c r="H42">
-        <v>0.607244399189949</v>
+        <v>0.5137885913252831</v>
       </c>
       <c r="I42">
-        <v>0.6066479464371999</v>
+        <v>0.518107196688652</v>
       </c>
       <c r="L42">
-        <v>19.76921734019487</v>
+        <v>47.50521918580982</v>
       </c>
       <c r="M42">
-        <v>26.3608049112855</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
+        <v>46.35594321528885</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2182,37 +2197,34 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.5627674460411072</v>
+        <v>0.5132421255111694</v>
       </c>
       <c r="C43">
-        <v>0.5691970586776733</v>
+        <v>0.5137411952018738</v>
       </c>
       <c r="D43">
-        <v>0.5497382879257202</v>
+        <v>0.4943560659885406</v>
       </c>
       <c r="E43">
-        <v>0.5566073656082153</v>
+        <v>0.5033354163169861</v>
       </c>
       <c r="F43">
-        <v>98410496</v>
+        <v>12116864</v>
       </c>
       <c r="G43">
-        <v>0.6028083808480751</v>
+        <v>0.5172304425063683</v>
       </c>
       <c r="H43">
-        <v>0.6048061162233352</v>
+        <v>0.5126032039523125</v>
       </c>
       <c r="I43">
-        <v>0.6048983434836069</v>
+        <v>0.5171883970499038</v>
       </c>
       <c r="L43">
-        <v>18.30381800339318</v>
+        <v>40.87388780067195</v>
       </c>
       <c r="M43">
-        <v>24.90476736256606</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
+        <v>42.14522766598538</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2220,37 +2232,34 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>0.5566003918647766</v>
+        <v>0.5047118663787842</v>
       </c>
       <c r="C44">
-        <v>0.5627994537353516</v>
+        <v>0.5177491307258606</v>
       </c>
       <c r="D44">
-        <v>0.5553270578384399</v>
+        <v>0.500424861907959</v>
       </c>
       <c r="E44">
-        <v>0.55727219581604</v>
+        <v>0.5168938040733337</v>
       </c>
       <c r="F44">
-        <v>2832256</v>
+        <v>52710976</v>
       </c>
       <c r="G44">
-        <v>0.5986687276633446</v>
+        <v>0.517199839012456</v>
       </c>
       <c r="H44">
-        <v>0.602603766322136</v>
+        <v>0.5123922303318977</v>
       </c>
       <c r="I44">
-        <v>0.6031926870346069</v>
+        <v>0.5167764653762181</v>
       </c>
       <c r="L44">
-        <v>19.08815593562858</v>
+        <v>51.41914142205245</v>
       </c>
       <c r="M44">
-        <v>25.42045934316454</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
+        <v>49.03614936897955</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2258,36 +2267,36 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>0.5572771430015564</v>
+        <v>0.5171294808387756</v>
       </c>
       <c r="C45">
-        <v>0.5635312795639038</v>
+        <v>0.587178111076355</v>
       </c>
       <c r="D45">
-        <v>0.5528516173362732</v>
+        <v>0.5121724009513855</v>
       </c>
       <c r="E45">
-        <v>0.5603247880935669</v>
+        <v>0.5664002895355225</v>
       </c>
       <c r="F45">
-        <v>29725696</v>
+        <v>293976128</v>
       </c>
       <c r="G45">
-        <v>0.5951829149751829</v>
+        <v>0.5216726072418257</v>
       </c>
       <c r="H45">
-        <v>0.6006033897399903</v>
+        <v>0.5149454697966576</v>
       </c>
       <c r="I45">
-        <v>0.6016728222370148</v>
+        <v>0.5176230023304621</v>
       </c>
       <c r="L45">
-        <v>22.91114984051067</v>
+        <v>71.96119274316627</v>
       </c>
       <c r="M45">
-        <v>27.86973834264482</v>
-      </c>
-      <c r="N45" t="s">
+        <v>65.29191701574044</v>
+      </c>
+      <c r="O45" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2296,36 +2305,36 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>0.5603055357933044</v>
+        <v>0.5666166543960571</v>
       </c>
       <c r="C46">
-        <v>0.5651838183403015</v>
+        <v>0.580902099609375</v>
       </c>
       <c r="D46">
-        <v>0.5578670501708984</v>
+        <v>0.5647451877593994</v>
       </c>
       <c r="E46">
-        <v>0.5578670501708984</v>
+        <v>0.5804896354675293</v>
       </c>
       <c r="F46">
-        <v>7874432</v>
+        <v>152509632</v>
       </c>
       <c r="G46">
-        <v>0.5917905636293389</v>
+        <v>0.5270196098077987</v>
       </c>
       <c r="H46">
-        <v>0.5987918376922607</v>
+        <v>0.5180963233113289</v>
       </c>
       <c r="I46">
-        <v>0.6001229306062063</v>
+        <v>0.5191347350676855</v>
       </c>
       <c r="L46">
-        <v>21.97086807405184</v>
+        <v>75.30450959546745</v>
       </c>
       <c r="M46">
-        <v>27.09810855313901</v>
-      </c>
-      <c r="N46" t="s">
+        <v>68.3827968304447</v>
+      </c>
+      <c r="O46" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2334,36 +2343,36 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>0.5574049949645996</v>
+        <v>0.5815929174423218</v>
       </c>
       <c r="C47">
-        <v>0.5690547823905945</v>
+        <v>0.5836857557296753</v>
       </c>
       <c r="D47">
-        <v>0.5532001852989197</v>
+        <v>0.5625188946723938</v>
       </c>
       <c r="E47">
-        <v>0.5593151450157166</v>
+        <v>0.5760685205459595</v>
       </c>
       <c r="F47">
-        <v>50773376</v>
+        <v>89373568</v>
       </c>
       <c r="G47">
-        <v>0.5888382528462823</v>
+        <v>0.531478601693086</v>
       </c>
       <c r="H47">
-        <v>0.5969447284936905</v>
+        <v>0.5221915766596794</v>
       </c>
       <c r="I47">
-        <v>0.5987744410832723</v>
+        <v>0.5210957835117976</v>
       </c>
       <c r="L47">
-        <v>24.03732027939252</v>
+        <v>72.26274264442399</v>
       </c>
       <c r="M47">
-        <v>28.35673708231862</v>
-      </c>
-      <c r="N47" t="s">
+        <v>66.38501881824469</v>
+      </c>
+      <c r="O47" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2372,615 +2381,597 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>0.5592460632324219</v>
+        <v>0.5761144161224365</v>
       </c>
       <c r="C48">
-        <v>0.5769314765930176</v>
+        <v>0.598476767539978</v>
       </c>
       <c r="D48">
-        <v>0.5583388805389404</v>
+        <v>0.5757116079330444</v>
       </c>
       <c r="E48">
-        <v>0.5750361084938049</v>
+        <v>0.598476767539978</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>95153792</v>
       </c>
       <c r="G48">
-        <v>0.5875835124506025</v>
+        <v>0.5375693440428034</v>
       </c>
       <c r="H48">
-        <v>0.5957298040390014</v>
+        <v>0.5283303260803223</v>
       </c>
       <c r="I48">
-        <v>0.5976185818513234</v>
+        <v>0.5236812581618627</v>
       </c>
       <c r="L48">
-        <v>42.60240575700202</v>
+        <v>77.45526804564024</v>
       </c>
       <c r="M48">
-        <v>40.38910844413768</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>71.00815774949814</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>0.5751473307609558</v>
+        <v>0.5992663502693176</v>
       </c>
       <c r="C49">
-        <v>0.5756158828735352</v>
+        <v>0.61579430103302</v>
       </c>
       <c r="D49">
-        <v>0.5692931413650513</v>
+        <v>0.582416296005249</v>
       </c>
       <c r="E49">
-        <v>0.5727503895759583</v>
+        <v>0.5830392837524414</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>188219392</v>
       </c>
       <c r="G49">
-        <v>0.5862350467347257</v>
+        <v>0.5417029749254978</v>
       </c>
       <c r="H49">
-        <v>0.5942256480455399</v>
+        <v>0.532988753914833</v>
       </c>
       <c r="I49">
-        <v>0.5964396874109904</v>
+        <v>0.52556691467762</v>
       </c>
       <c r="L49">
-        <v>40.96482050302474</v>
+        <v>67.64122947093915</v>
       </c>
       <c r="M49">
-        <v>39.35421538143196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>64.43355549889218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>0.5727977156639099</v>
+        <v>0.5829740762710571</v>
       </c>
       <c r="C50">
-        <v>0.5777654647827148</v>
+        <v>0.5868498086929321</v>
       </c>
       <c r="D50">
-        <v>0.5701447129249573</v>
+        <v>0.5730589032173157</v>
       </c>
       <c r="E50">
-        <v>0.570539116859436</v>
+        <v>0.5829071402549744</v>
       </c>
       <c r="F50">
-        <v>487936</v>
+        <v>63134080</v>
       </c>
       <c r="G50">
-        <v>0.5848081440187903</v>
+        <v>0.5454488081372684</v>
       </c>
       <c r="H50">
-        <v>0.592466601729393</v>
+        <v>0.5372045546770096</v>
       </c>
       <c r="I50">
-        <v>0.595388650894165</v>
+        <v>0.5275885750850041</v>
       </c>
       <c r="L50">
-        <v>39.319866216984</v>
+        <v>67.55879658406313</v>
       </c>
       <c r="M50">
-        <v>38.33095762210947</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>64.37860688023052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>0.570543110370636</v>
+        <v>0.5829349756240845</v>
       </c>
       <c r="C51">
-        <v>0.572709321975708</v>
+        <v>0.5871531367301941</v>
       </c>
       <c r="D51">
-        <v>0.5523681044578552</v>
+        <v>0.5761740803718567</v>
       </c>
       <c r="E51">
-        <v>0.5531936287879944</v>
+        <v>0.5821986794471741</v>
       </c>
       <c r="F51">
-        <v>42504704</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.581934097179627</v>
+        <v>0.548789705529078</v>
       </c>
       <c r="H51">
-        <v>0.589260458946228</v>
+        <v>0.5407156080007554</v>
       </c>
       <c r="I51">
-        <v>0.5938284079233805</v>
+        <v>0.5295735687017441</v>
       </c>
       <c r="L51">
-        <v>29.03215455142136</v>
+        <v>67.06583518989693</v>
       </c>
       <c r="M51">
-        <v>31.42794492299831</v>
-      </c>
-      <c r="N51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>64.06317335740151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>0.5532192587852478</v>
+        <v>0.5821335911750793</v>
       </c>
       <c r="C52">
-        <v>0.5569185018539429</v>
+        <v>0.5830472707748413</v>
       </c>
       <c r="D52">
-        <v>0.5511549711227417</v>
+        <v>0.5741024017333984</v>
       </c>
       <c r="E52">
-        <v>0.5539980530738831</v>
+        <v>0.5799898505210876</v>
       </c>
       <c r="F52">
-        <v>7565952</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.5793944568063775</v>
+        <v>0.5516260823465334</v>
       </c>
       <c r="H52">
-        <v>0.5858056992292404</v>
+        <v>0.5426422953605652</v>
       </c>
       <c r="I52">
-        <v>0.5920597275098165</v>
+        <v>0.5315190404653549</v>
       </c>
       <c r="L52">
-        <v>29.98787566203545</v>
+        <v>65.39221905928579</v>
       </c>
       <c r="M52">
-        <v>32.03921163171192</v>
-      </c>
-      <c r="N52" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>63.02631572981855</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>0.5539913773536682</v>
+        <v>0.5799358487129211</v>
       </c>
       <c r="C53">
-        <v>0.5576367378234863</v>
+        <v>0.5877018570899963</v>
       </c>
       <c r="D53">
-        <v>0.543093204498291</v>
+        <v>0.5783522725105286</v>
       </c>
       <c r="E53">
-        <v>0.5431194305419922</v>
+        <v>0.5788283944129944</v>
       </c>
       <c r="F53">
-        <v>6104576</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.5760967271459787</v>
+        <v>0.5540990198071207</v>
       </c>
       <c r="H53">
-        <v>0.5814496397972106</v>
+        <v>0.5445380002260208</v>
       </c>
       <c r="I53">
-        <v>0.5899846076965332</v>
+        <v>0.5332452148199082</v>
       </c>
       <c r="L53">
-        <v>24.88857278179649</v>
+        <v>64.44093635301307</v>
       </c>
       <c r="M53">
-        <v>28.35768632546706</v>
-      </c>
-      <c r="N53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>62.45392078183229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>0.5429272651672363</v>
+        <v>0.5788419842720032</v>
       </c>
       <c r="C54">
-        <v>0.5452916622161865</v>
+        <v>0.5832133889198303</v>
       </c>
       <c r="D54">
-        <v>0.5298174023628235</v>
+        <v>0.5733166337013245</v>
       </c>
       <c r="E54">
-        <v>0.5308994054794312</v>
+        <v>0.5813676118850708</v>
       </c>
       <c r="F54">
-        <v>35272192</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.571987879721747</v>
+        <v>0.5565779827232979</v>
       </c>
       <c r="H54">
-        <v>0.5765946179628372</v>
+        <v>0.5472079545259476</v>
       </c>
       <c r="I54">
-        <v>0.5876372814178467</v>
+        <v>0.5352536926666895</v>
       </c>
       <c r="L54">
-        <v>20.48628000314091</v>
+        <v>65.66926954724022</v>
       </c>
       <c r="M54">
-        <v>24.89690468741811</v>
-      </c>
-      <c r="N54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>63.23993769111868</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>0.5311967134475708</v>
+        <v>0.581299901008606</v>
       </c>
       <c r="C55">
-        <v>0.534013032913208</v>
+        <v>0.5856621861457825</v>
       </c>
       <c r="D55">
-        <v>0.5266715884208679</v>
+        <v>0.5661124587059021</v>
       </c>
       <c r="E55">
-        <v>0.529251754283905</v>
+        <v>0.5661124587059021</v>
       </c>
       <c r="F55">
-        <v>27909568</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.5681027774092159</v>
+        <v>0.557444753267171</v>
       </c>
       <c r="H55">
-        <v>0.5717448621988297</v>
+        <v>0.5489725559949875</v>
       </c>
       <c r="I55">
-        <v>0.5852679292360942</v>
+        <v>0.5369462579488754</v>
       </c>
       <c r="L55">
-        <v>19.95099005860517</v>
+        <v>53.239361690233</v>
       </c>
       <c r="M55">
-        <v>24.46339579546856</v>
-      </c>
-      <c r="N55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>55.69608309308438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>0.5292233228683472</v>
+        <v>0.5661728978157043</v>
       </c>
       <c r="C56">
-        <v>0.5410041809082031</v>
+        <v>0.5700787305831909</v>
       </c>
       <c r="D56">
-        <v>0.5291720032691956</v>
+        <v>0.5466439127922058</v>
       </c>
       <c r="E56">
-        <v>0.5410041809082031</v>
+        <v>0.5572097301483154</v>
       </c>
       <c r="F56">
-        <v>10613248</v>
+        <v>24582976</v>
       </c>
       <c r="G56">
-        <v>0.5656392686363965</v>
+        <v>0.5574233875290933</v>
       </c>
       <c r="H56">
-        <v>0.5680476009845734</v>
+        <v>0.5507524758577347</v>
       </c>
       <c r="I56">
-        <v>0.5834981322288513</v>
+        <v>0.5382708301146825</v>
       </c>
       <c r="L56">
-        <v>33.82586419815279</v>
+        <v>47.35462292939336</v>
       </c>
       <c r="M56">
-        <v>33.37465503240156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>51.81170910758143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>0.541308581829071</v>
+        <v>0.5573800206184387</v>
       </c>
       <c r="C57">
-        <v>0.5422122478485107</v>
+        <v>0.5649511814117432</v>
       </c>
       <c r="D57">
-        <v>0.5346270203590393</v>
+        <v>0.5361053347587585</v>
       </c>
       <c r="E57">
-        <v>0.5351376533508301</v>
+        <v>0.5473270416259766</v>
       </c>
       <c r="F57">
-        <v>89920</v>
+        <v>56114560</v>
       </c>
       <c r="G57">
-        <v>0.5628663945195267</v>
+        <v>0.5565055379015372</v>
       </c>
       <c r="H57">
-        <v>0.5640794962644577</v>
+        <v>0.5525911092758179</v>
       </c>
       <c r="I57">
-        <v>0.5814608097076416</v>
+        <v>0.5400429497162501</v>
       </c>
       <c r="L57">
-        <v>30.82540347342373</v>
+        <v>41.61075503791902</v>
       </c>
       <c r="M57">
-        <v>31.38429238779099</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>47.82437739419478</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>0.5351115465164185</v>
+        <v>0.5473010540008545</v>
       </c>
       <c r="C58">
-        <v>0.5355589985847473</v>
+        <v>0.5494604706764221</v>
       </c>
       <c r="D58">
-        <v>0.5095345377922058</v>
+        <v>0.5370948910713196</v>
       </c>
       <c r="E58">
-        <v>0.5172370672225952</v>
+        <v>0.5455681681632996</v>
       </c>
       <c r="F58">
-        <v>64317696</v>
+        <v>10679744</v>
       </c>
       <c r="G58">
-        <v>0.5587182738561692</v>
+        <v>0.5555112315616973</v>
       </c>
       <c r="H58">
-        <v>0.5596561431884766</v>
+        <v>0.5545951366424561</v>
       </c>
       <c r="I58">
-        <v>0.578724225362142</v>
+        <v>0.5423718293507894</v>
       </c>
       <c r="L58">
-        <v>23.63017432188149</v>
+        <v>40.62416102425377</v>
       </c>
       <c r="M58">
-        <v>26.24173851240439</v>
-      </c>
-      <c r="N58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>47.12921096773561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>0.5174230337142944</v>
+        <v>0.5455713868141174</v>
       </c>
       <c r="C59">
-        <v>0.523429274559021</v>
+        <v>0.5530081391334534</v>
       </c>
       <c r="D59">
-        <v>0.5155569314956665</v>
+        <v>0.545101523399353</v>
       </c>
       <c r="E59">
-        <v>0.5209125280380249</v>
+        <v>0.5496243238449097</v>
       </c>
       <c r="F59">
-        <v>6649664</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0.5552813878727015</v>
+        <v>0.5549760581328984</v>
       </c>
       <c r="H59">
-        <v>0.5552620530128479</v>
+        <v>0.5565024048089982</v>
       </c>
       <c r="I59">
-        <v>0.5759935259819031</v>
+        <v>0.5443636159102122</v>
       </c>
       <c r="L59">
-        <v>27.53721514103366</v>
+        <v>44.06488591680274</v>
       </c>
       <c r="M59">
-        <v>28.82072632595369</v>
-      </c>
-      <c r="N59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>48.97133297442523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>0.520931601524353</v>
+        <v>0.5496251583099365</v>
       </c>
       <c r="C60">
-        <v>0.5291575789451599</v>
+        <v>0.5515236854553223</v>
       </c>
       <c r="D60">
-        <v>0.5189780592918396</v>
+        <v>0.5473456978797913</v>
       </c>
       <c r="E60">
-        <v>0.5264695882797241</v>
+        <v>0.5487987995147705</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>2447296</v>
       </c>
       <c r="G60">
-        <v>0.552662133364249</v>
+        <v>0.554414489167614</v>
       </c>
       <c r="H60">
-        <v>0.5510427385568619</v>
+        <v>0.5582840830087662</v>
       </c>
       <c r="I60">
-        <v>0.5733518441518147</v>
+        <v>0.546037205060323</v>
       </c>
       <c r="L60">
-        <v>33.33804374684919</v>
+        <v>43.48788531733226</v>
       </c>
       <c r="M60">
-        <v>32.65482340955149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>48.60019062123543</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>0.5263993740081787</v>
+        <v>0.548764705657959</v>
       </c>
       <c r="C61">
-        <v>0.5289371013641357</v>
+        <v>0.5512260794639587</v>
       </c>
       <c r="D61">
-        <v>0.5218154788017273</v>
+        <v>0.5447241067886353</v>
       </c>
       <c r="E61">
-        <v>0.5222573280334473</v>
+        <v>0.5503641963005066</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0.5498980601523579</v>
+        <v>0.5540462807251497</v>
       </c>
       <c r="H61">
-        <v>0.5472759693861008</v>
+        <v>0.560407230257988</v>
       </c>
       <c r="I61">
-        <v>0.5701832056045533</v>
+        <v>0.5473167578379313</v>
       </c>
       <c r="L61">
-        <v>31.20765544560114</v>
+        <v>45.02358781617809</v>
       </c>
       <c r="M61">
-        <v>31.27944147067463</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>49.38356504569631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>0.5223416686058044</v>
+        <v>0.5503928661346436</v>
       </c>
       <c r="C62">
-        <v>0.5275664925575256</v>
+        <v>0.5505045056343079</v>
       </c>
       <c r="D62">
-        <v>0.5172984004020691</v>
+        <v>0.5426533222198486</v>
       </c>
       <c r="E62">
-        <v>0.5226488709449768</v>
+        <v>0.5479617714881897</v>
       </c>
       <c r="F62">
-        <v>274944</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>0.547420861133505</v>
+        <v>0.5534931435217898</v>
       </c>
       <c r="H62">
-        <v>0.5452920824289322</v>
+        <v>0.5621480941772461</v>
       </c>
       <c r="I62">
-        <v>0.5668350597222646</v>
+        <v>0.5475336134433746</v>
       </c>
       <c r="L62">
-        <v>31.66430492369335</v>
+        <v>43.00582238062841</v>
       </c>
       <c r="M62">
-        <v>31.56796701806034</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>48.17018664561036</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>0.5231689214706421</v>
+        <v>0.5478378534317017</v>
       </c>
       <c r="C63">
-        <v>0.5288989543914795</v>
+        <v>0.5508208870887756</v>
       </c>
       <c r="D63">
-        <v>0.5196067690849304</v>
+        <v>0.5469297766685486</v>
       </c>
       <c r="E63">
-        <v>0.5216256976127625</v>
+        <v>0.5493476390838623</v>
       </c>
       <c r="F63">
-        <v>6341216</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.5450758462679829</v>
+        <v>0.5531162794819782</v>
       </c>
       <c r="H63">
-        <v>0.5435429990291596</v>
+        <v>0.5644487053155899</v>
       </c>
       <c r="I63">
-        <v>0.5632145623366038</v>
+        <v>0.5478147248427073</v>
       </c>
       <c r="L63">
-        <v>31.05820863287537</v>
+        <v>44.6165966242015</v>
       </c>
       <c r="M63">
-        <v>31.19933130357913</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>48.94942633827812</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>0.5216336250305176</v>
+        <v>0.549369215965271</v>
       </c>
       <c r="C64">
-        <v>0.5285524129867554</v>
+        <v>0.5493801832199097</v>
       </c>
       <c r="D64">
-        <v>0.5216336250305176</v>
+        <v>0.5439460873603821</v>
       </c>
       <c r="E64">
-        <v>0.5270431637763977</v>
+        <v>0.5441919565200806</v>
       </c>
       <c r="F64">
-        <v>1266528</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.5434365114960206</v>
+        <v>0.5523049773945329</v>
       </c>
       <c r="H64">
-        <v>0.5420315474271774</v>
+        <v>0.5658136129379272</v>
       </c>
       <c r="I64">
-        <v>0.5598493397235871</v>
+        <v>0.5483555058638255</v>
       </c>
       <c r="L64">
-        <v>38.11426057565746</v>
+        <v>39.8974227416727</v>
       </c>
       <c r="M64">
-        <v>35.49449066425871</v>
+        <v>46.16851924237453</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -2988,34 +2979,34 @@
         <v>77</v>
       </c>
       <c r="B65">
-        <v>0.5270838141441345</v>
+        <v>0.5441601276397705</v>
       </c>
       <c r="C65">
-        <v>0.5295055508613586</v>
+        <v>0.5495657920837402</v>
       </c>
       <c r="D65">
-        <v>0.5192576050758362</v>
+        <v>0.5420556664466858</v>
       </c>
       <c r="E65">
-        <v>0.5211132764816284</v>
+        <v>0.546305775642395</v>
       </c>
       <c r="F65">
-        <v>3818656</v>
+        <v>5247968</v>
       </c>
       <c r="G65">
-        <v>0.5414071264947121</v>
+        <v>0.5517595954170658</v>
       </c>
       <c r="H65">
-        <v>0.5400709718465805</v>
+        <v>0.5648088872432708</v>
       </c>
       <c r="I65">
-        <v>0.5563448866208395</v>
+        <v>0.5488716840744019</v>
       </c>
       <c r="L65">
-        <v>33.84828269819329</v>
+        <v>42.69324484403575</v>
       </c>
       <c r="M65">
-        <v>33.06148096065715</v>
+        <v>47.48581069833703</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3023,34 +3014,34 @@
         <v>78</v>
       </c>
       <c r="B66">
-        <v>0.5211014747619629</v>
+        <v>0.5464502573013306</v>
       </c>
       <c r="C66">
-        <v>0.5249760746955872</v>
+        <v>0.5481595993041992</v>
       </c>
       <c r="D66">
-        <v>0.5147705078125</v>
+        <v>0.5443957448005676</v>
       </c>
       <c r="E66">
-        <v>0.5153355002403259</v>
+        <v>0.5452525615692139</v>
       </c>
       <c r="F66">
-        <v>2625056</v>
+        <v>6516096</v>
       </c>
       <c r="G66">
-        <v>0.5390369786534043</v>
+        <v>0.5511680468854429</v>
       </c>
       <c r="H66">
-        <v>0.5379443943500519</v>
+        <v>0.5630470335483551</v>
       </c>
       <c r="I66">
-        <v>0.553024423122406</v>
+        <v>0.5496597250302633</v>
       </c>
       <c r="L66">
-        <v>30.14935435266691</v>
+        <v>41.6083240935209</v>
       </c>
       <c r="M66">
-        <v>30.84308213894096</v>
+        <v>46.87038226261688</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3058,34 +3049,34 @@
         <v>79</v>
       </c>
       <c r="B67">
-        <v>0.5153129100799561</v>
+        <v>0.5452225804328918</v>
       </c>
       <c r="C67">
-        <v>0.5193930864334106</v>
+        <v>0.5465789437294006</v>
       </c>
       <c r="D67">
-        <v>0.5116251707077026</v>
+        <v>0.5430286526679993</v>
       </c>
       <c r="E67">
-        <v>0.5174725651741028</v>
+        <v>0.5463047623634338</v>
       </c>
       <c r="F67">
-        <v>3599488</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.5370765774280132</v>
+        <v>0.5507259301107148</v>
       </c>
       <c r="H67">
-        <v>0.5358522653579711</v>
+        <v>0.5615588456392289</v>
       </c>
       <c r="I67">
-        <v>0.5497901837031046</v>
+        <v>0.5508514046669006</v>
       </c>
       <c r="L67">
-        <v>33.18748617208288</v>
+        <v>43.22973927345224</v>
       </c>
       <c r="M67">
-        <v>32.64335951263281</v>
+        <v>47.60102180921355</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3093,37 +3084,34 @@
         <v>80</v>
       </c>
       <c r="B68">
-        <v>0.5174708962440491</v>
+        <v>0.5462678670883179</v>
       </c>
       <c r="C68">
-        <v>0.5180991291999817</v>
+        <v>0.5475651025772095</v>
       </c>
       <c r="D68">
-        <v>0.4903057515621185</v>
+        <v>0.5377623438835144</v>
       </c>
       <c r="E68">
-        <v>0.494163453578949</v>
+        <v>0.5377623438835144</v>
       </c>
       <c r="F68">
-        <v>56793696</v>
+        <v>10327808</v>
       </c>
       <c r="G68">
-        <v>0.5331753843508255</v>
+        <v>0.5495474222718784</v>
       </c>
       <c r="H68">
-        <v>0.5318086326122284</v>
+        <v>0.5585231244564056</v>
       </c>
       <c r="I68">
-        <v>0.5460721611976623</v>
+        <v>0.5519272287686666</v>
       </c>
       <c r="L68">
-        <v>21.6388466942002</v>
+        <v>34.48401373451404</v>
       </c>
       <c r="M68">
-        <v>24.99929638132376</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
+        <v>42.49197058288937</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3131,34 +3119,34 @@
         <v>81</v>
       </c>
       <c r="B69">
-        <v>0.4942227900028229</v>
+        <v>0.5378013849258423</v>
       </c>
       <c r="C69">
-        <v>0.4981565773487091</v>
+        <v>0.539440929889679</v>
       </c>
       <c r="D69">
-        <v>0.4681862592697143</v>
+        <v>0.5259992480278015</v>
       </c>
       <c r="E69">
-        <v>0.4757017791271209</v>
+        <v>0.5259992480278015</v>
       </c>
       <c r="F69">
-        <v>121778848</v>
+        <v>45552384</v>
       </c>
       <c r="G69">
-        <v>0.5279505111486705</v>
+        <v>0.5474066791587804</v>
       </c>
       <c r="H69">
-        <v>0.5269562020897866</v>
+        <v>0.5556711226701736</v>
       </c>
       <c r="I69">
-        <v>0.5416357427835464</v>
+        <v>0.5524112383524576</v>
       </c>
       <c r="L69">
-        <v>16.51736952444039</v>
+        <v>26.25542155009577</v>
       </c>
       <c r="M69">
-        <v>20.8373062786858</v>
+        <v>36.65737428645725</v>
       </c>
       <c r="N69" t="s">
         <v>195</v>
@@ -3169,34 +3157,34 @@
         <v>82</v>
       </c>
       <c r="B70">
-        <v>0.475711852312088</v>
+        <v>0.525907576084137</v>
       </c>
       <c r="C70">
-        <v>0.4932914972305298</v>
+        <v>0.5386354923248291</v>
       </c>
       <c r="D70">
-        <v>0.4732333421707153</v>
+        <v>0.5258086323738098</v>
       </c>
       <c r="E70">
-        <v>0.4898707270622253</v>
+        <v>0.5371601581573486</v>
       </c>
       <c r="F70">
-        <v>50243616</v>
+        <v>17306016</v>
       </c>
       <c r="G70">
-        <v>0.5244887125953573</v>
+        <v>0.5464751772495593</v>
       </c>
       <c r="H70">
-        <v>0.522922782599926</v>
+        <v>0.5533837735652923</v>
       </c>
       <c r="I70">
-        <v>0.5376029044389725</v>
+        <v>0.5532110691070556</v>
       </c>
       <c r="L70">
-        <v>30.68256720103747</v>
+        <v>41.22558499959348</v>
       </c>
       <c r="M70">
-        <v>30.41265741652543</v>
+        <v>44.45105190737971</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3204,34 +3192,34 @@
         <v>83</v>
       </c>
       <c r="B71">
-        <v>0.4898402690887451</v>
+        <v>0.5371806025505066</v>
       </c>
       <c r="C71">
-        <v>0.4985911250114441</v>
+        <v>0.5405462980270386</v>
       </c>
       <c r="D71">
-        <v>0.486789345741272</v>
+        <v>0.5354539752006531</v>
       </c>
       <c r="E71">
-        <v>0.4985911250114441</v>
+        <v>0.5370787978172302</v>
       </c>
       <c r="F71">
-        <v>15117056</v>
+        <v>2979680</v>
       </c>
       <c r="G71">
-        <v>0.5221343864513652</v>
+        <v>0.5456209609375293</v>
       </c>
       <c r="H71">
-        <v>0.5201926574110984</v>
+        <v>0.5511277794837952</v>
       </c>
       <c r="I71">
-        <v>0.5343028515577316</v>
+        <v>0.5541836539904277</v>
       </c>
       <c r="L71">
-        <v>37.97007440292412</v>
+        <v>41.15706670794122</v>
       </c>
       <c r="M71">
-        <v>35.57747812271595</v>
+        <v>44.40815687975696</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3239,34 +3227,34 @@
         <v>84</v>
       </c>
       <c r="B72">
-        <v>0.4988486170768738</v>
+        <v>0.5370869636535645</v>
       </c>
       <c r="C72">
-        <v>0.5133693814277649</v>
+        <v>0.5393713116645813</v>
       </c>
       <c r="D72">
-        <v>0.4988486170768738</v>
+        <v>0.5362620949745178</v>
       </c>
       <c r="E72">
-        <v>0.5119776129722595</v>
+        <v>0.5362861156463623</v>
       </c>
       <c r="F72">
-        <v>68100224</v>
+        <v>4788960</v>
       </c>
       <c r="G72">
-        <v>0.5212110434078101</v>
+        <v>0.5447723386383323</v>
       </c>
       <c r="H72">
-        <v>0.5180916354060173</v>
+        <v>0.5489425927400589</v>
       </c>
       <c r="I72">
-        <v>0.532624551653862</v>
+        <v>0.5549550414085388</v>
       </c>
       <c r="L72">
-        <v>47.5016565795146</v>
+        <v>40.42071958046077</v>
       </c>
       <c r="M72">
-        <v>42.61815678455582</v>
+        <v>43.96303028062521</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3274,34 +3262,34 @@
         <v>85</v>
       </c>
       <c r="B73">
-        <v>0.5120114088058472</v>
+        <v>0.5362826585769653</v>
       </c>
       <c r="C73">
-        <v>0.5414561033248901</v>
+        <v>0.5373595356941223</v>
       </c>
       <c r="D73">
-        <v>0.5088875889778137</v>
+        <v>0.5249813795089722</v>
       </c>
       <c r="E73">
-        <v>0.5414561033248901</v>
+        <v>0.5252226591110229</v>
       </c>
       <c r="F73">
-        <v>118564672</v>
+        <v>20794208</v>
       </c>
       <c r="G73">
-        <v>0.523051503400272</v>
+        <v>0.5429950950449405</v>
       </c>
       <c r="H73">
-        <v>0.5180084690451622</v>
+        <v>0.5462623059749603</v>
       </c>
       <c r="I73">
-        <v>0.5321195095777511</v>
+        <v>0.5556846161683401</v>
       </c>
       <c r="L73">
-        <v>61.97633250915841</v>
+        <v>31.55600965757555</v>
       </c>
       <c r="M73">
-        <v>54.42916687620011</v>
+        <v>38.20680310005175</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3309,34 +3297,34 @@
         <v>86</v>
       </c>
       <c r="B74">
-        <v>0.5414705872535706</v>
+        <v>0.5252578258514404</v>
       </c>
       <c r="C74">
-        <v>0.542901873588562</v>
+        <v>0.5353387594223022</v>
       </c>
       <c r="D74">
-        <v>0.5342634320259094</v>
+        <v>0.5251574516296387</v>
       </c>
       <c r="E74">
-        <v>0.5409142971038818</v>
+        <v>0.5337778329849243</v>
       </c>
       <c r="F74">
-        <v>30081344</v>
+        <v>6877056</v>
       </c>
       <c r="G74">
-        <v>0.5246753937369638</v>
+        <v>0.5421571621303936</v>
       </c>
       <c r="H74">
-        <v>0.5185092136263847</v>
+        <v>0.543882817029953</v>
       </c>
       <c r="I74">
-        <v>0.5315742462873458</v>
+        <v>0.5562474171320597</v>
       </c>
       <c r="L74">
-        <v>61.62500553768916</v>
+        <v>42.52210191256024</v>
       </c>
       <c r="M74">
-        <v>54.20831459842575</v>
+        <v>44.28210288504829</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3344,34 +3332,34 @@
         <v>87</v>
       </c>
       <c r="B75">
-        <v>0.5410723686218262</v>
+        <v>0.5337784886360168</v>
       </c>
       <c r="C75">
-        <v>0.5425848364830017</v>
+        <v>0.536559522151947</v>
       </c>
       <c r="D75">
-        <v>0.5278065800666809</v>
+        <v>0.5258715152740479</v>
       </c>
       <c r="E75">
-        <v>0.5279685258865356</v>
+        <v>0.5281846523284912</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>678560</v>
       </c>
       <c r="G75">
-        <v>0.5249747693869249</v>
+        <v>0.5408869339665843</v>
       </c>
       <c r="H75">
-        <v>0.5184450522065163</v>
+        <v>0.5419864267110824</v>
       </c>
       <c r="I75">
-        <v>0.5304957042137782</v>
+        <v>0.5549735625584921</v>
       </c>
       <c r="L75">
-        <v>53.47638452802872</v>
+        <v>38.03946555397427</v>
       </c>
       <c r="M75">
-        <v>49.08354076501392</v>
+        <v>41.41527087585871</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3379,34 +3367,34 @@
         <v>88</v>
       </c>
       <c r="B76">
-        <v>0.5279412865638733</v>
+        <v>0.5280497670173645</v>
       </c>
       <c r="C76">
-        <v>0.5349591970443726</v>
+        <v>0.5341122150421143</v>
       </c>
       <c r="D76">
-        <v>0.5276155471801758</v>
+        <v>0.5279622077941895</v>
       </c>
       <c r="E76">
-        <v>0.5308204293251038</v>
+        <v>0.5341122150421143</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0.5255061930176684</v>
+        <v>0.5402710504279961</v>
       </c>
       <c r="H76">
-        <v>0.5179358646273613</v>
+        <v>0.5408315509557724</v>
       </c>
       <c r="I76">
-        <v>0.529594150185585</v>
+        <v>0.5534276485443115</v>
       </c>
       <c r="L76">
-        <v>54.95262151400087</v>
+        <v>44.95755730075845</v>
       </c>
       <c r="M76">
-        <v>50.20046989198192</v>
+        <v>45.446164108566</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3414,34 +3402,34 @@
         <v>89</v>
       </c>
       <c r="B77">
-        <v>0.5307328701019287</v>
+        <v>0.5341799855232239</v>
       </c>
       <c r="C77">
-        <v>0.5307328701019287</v>
+        <v>0.5346192121505737</v>
       </c>
       <c r="D77">
-        <v>0.5163861513137817</v>
+        <v>0.5305930972099304</v>
       </c>
       <c r="E77">
-        <v>0.5216113328933716</v>
+        <v>0.5321348309516907</v>
       </c>
       <c r="F77">
-        <v>15510656</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.5251521148245505</v>
+        <v>0.5395313941119683</v>
       </c>
       <c r="H77">
-        <v>0.5172595486044884</v>
+        <v>0.5400719404220581</v>
       </c>
       <c r="I77">
-        <v>0.5283373564481735</v>
+        <v>0.5519631922245025</v>
       </c>
       <c r="L77">
-        <v>49.27291838079466</v>
+        <v>43.14949144771019</v>
       </c>
       <c r="M77">
-        <v>46.64239449571498</v>
+        <v>44.34991507671867</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3449,34 +3437,34 @@
         <v>90</v>
       </c>
       <c r="B78">
-        <v>0.5217654705047607</v>
+        <v>0.5321441292762756</v>
       </c>
       <c r="C78">
-        <v>0.5240562558174133</v>
+        <v>0.5370820164680481</v>
       </c>
       <c r="D78">
-        <v>0.5081546306610107</v>
+        <v>0.5314306616783142</v>
       </c>
       <c r="E78">
-        <v>0.5105543732643127</v>
+        <v>0.5368463397026062</v>
       </c>
       <c r="F78">
-        <v>36744640</v>
+        <v>2845568</v>
       </c>
       <c r="G78">
-        <v>0.5238250474099834</v>
+        <v>0.5392872982565717</v>
       </c>
       <c r="H78">
-        <v>0.5169254139065742</v>
+        <v>0.5396358489990234</v>
       </c>
       <c r="I78">
-        <v>0.5261879652738571</v>
+        <v>0.5499088446299235</v>
       </c>
       <c r="L78">
-        <v>43.2367482602398</v>
+        <v>48.68177755081691</v>
       </c>
       <c r="M78">
-        <v>42.72668924877836</v>
+        <v>47.59367951785531</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3484,34 +3472,34 @@
         <v>91</v>
       </c>
       <c r="B79">
-        <v>0.5104387998580933</v>
+        <v>0.5368842482566833</v>
       </c>
       <c r="C79">
-        <v>0.5114173293113708</v>
+        <v>0.5414783954620361</v>
       </c>
       <c r="D79">
-        <v>0.5038369297981262</v>
+        <v>0.5275114178657532</v>
       </c>
       <c r="E79">
-        <v>0.5054876208305359</v>
+        <v>0.5414783954620361</v>
       </c>
       <c r="F79">
-        <v>2350656</v>
+        <v>26495424</v>
       </c>
       <c r="G79">
-        <v>0.5221580086300336</v>
+        <v>0.5394864889116139</v>
       </c>
       <c r="H79">
-        <v>0.5161541685461998</v>
+        <v>0.5392285525798798</v>
       </c>
       <c r="I79">
-        <v>0.5239458729823431</v>
+        <v>0.54852348168691</v>
       </c>
       <c r="L79">
-        <v>40.6683841868098</v>
+        <v>53.66847657778865</v>
       </c>
       <c r="M79">
-        <v>41.02696980995535</v>
+        <v>50.63987776382857</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3519,606 +3507,603 @@
         <v>92</v>
       </c>
       <c r="B80">
-        <v>0.5055054426193237</v>
+        <v>0.5414565205574036</v>
       </c>
       <c r="C80">
-        <v>0.5154960155487061</v>
+        <v>0.546018660068512</v>
       </c>
       <c r="D80">
-        <v>0.498998075723648</v>
+        <v>0.5373335480690002</v>
       </c>
       <c r="E80">
-        <v>0.5114789605140686</v>
+        <v>0.5396744608879089</v>
       </c>
       <c r="F80">
-        <v>127218336</v>
+        <v>7216768</v>
       </c>
       <c r="G80">
-        <v>0.5211871860740368</v>
+        <v>0.5395035772730953</v>
       </c>
       <c r="H80">
-        <v>0.5154046371579171</v>
+        <v>0.5387723356485367</v>
       </c>
       <c r="I80">
-        <v>0.5219772011041641</v>
+        <v>0.5470823923746745</v>
       </c>
       <c r="L80">
-        <v>45.01354694708107</v>
+        <v>51.47691542474708</v>
       </c>
       <c r="M80">
-        <v>43.87043936993952</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>49.43473528349209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>0.511591374874115</v>
+        <v>0.5396624207496643</v>
       </c>
       <c r="C81">
-        <v>0.5173238515853882</v>
+        <v>0.54472815990448</v>
       </c>
       <c r="D81">
-        <v>0.5115428566932678</v>
+        <v>0.5355304479598999</v>
       </c>
       <c r="E81">
-        <v>0.5131652355194092</v>
+        <v>0.5355304479598999</v>
       </c>
       <c r="F81">
-        <v>739200</v>
+        <v>3313024</v>
       </c>
       <c r="G81">
-        <v>0.520457917841798</v>
+        <v>0.5391423836991684</v>
       </c>
       <c r="H81">
-        <v>0.5149500325322152</v>
+        <v>0.5380306482315064</v>
       </c>
       <c r="I81">
-        <v>0.5206429213285446</v>
+        <v>0.545526784658432</v>
       </c>
       <c r="L81">
-        <v>46.25971558077885</v>
+        <v>46.5629954563118</v>
       </c>
       <c r="M81">
-        <v>44.67892974949888</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>46.68609265983189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>0.5131601095199585</v>
+        <v>0.5356497168540955</v>
       </c>
       <c r="C82">
-        <v>0.51787269115448</v>
+        <v>0.5387752652168274</v>
       </c>
       <c r="D82">
-        <v>0.5077016949653625</v>
+        <v>0.5346586108207703</v>
       </c>
       <c r="E82">
-        <v>0.5079012513160706</v>
+        <v>0.5356881022453308</v>
       </c>
       <c r="F82">
-        <v>5816640</v>
+        <v>4804448</v>
       </c>
       <c r="G82">
-        <v>0.5193164027030954</v>
+        <v>0.5388283581124559</v>
       </c>
       <c r="H82">
-        <v>0.5142126515507698</v>
+        <v>0.5374169647693634</v>
       </c>
       <c r="I82">
-        <v>0.5191063612699509</v>
+        <v>0.5440500597159068</v>
       </c>
       <c r="L82">
-        <v>42.84932738936395</v>
+        <v>46.78042779846398</v>
       </c>
       <c r="M82">
-        <v>42.61535510294287</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>46.80726618358364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>0.5079145431518555</v>
+        <v>0.5356574654579163</v>
       </c>
       <c r="C83">
-        <v>0.5180335640907288</v>
+        <v>0.5356574654579163</v>
       </c>
       <c r="D83">
-        <v>0.5006838440895081</v>
+        <v>0.528582751750946</v>
       </c>
       <c r="E83">
-        <v>0.5131444931030273</v>
+        <v>0.528582751750946</v>
       </c>
       <c r="F83">
-        <v>17277568</v>
+        <v>9694336</v>
       </c>
       <c r="G83">
-        <v>0.5187553200121802</v>
+        <v>0.5378969393523186</v>
       </c>
       <c r="H83">
-        <v>0.5137885913252831</v>
+        <v>0.5363787204027176</v>
       </c>
       <c r="I83">
-        <v>0.518107196688652</v>
+        <v>0.5423752049605052</v>
       </c>
       <c r="L83">
-        <v>47.21034195083087</v>
+        <v>38.7798643760959</v>
       </c>
       <c r="M83">
-        <v>45.32419061389632</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>42.15677318862105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>0.5132421255111694</v>
+        <v>0.528555691242218</v>
       </c>
       <c r="C84">
-        <v>0.5137411952018738</v>
+        <v>0.5343244075775146</v>
       </c>
       <c r="D84">
-        <v>0.4943560659885406</v>
+        <v>0.5274840593338013</v>
       </c>
       <c r="E84">
-        <v>0.5033354163169861</v>
+        <v>0.5322995781898499</v>
       </c>
       <c r="F84">
-        <v>12116864</v>
+        <v>10297664</v>
       </c>
       <c r="G84">
-        <v>0.5173535105853443</v>
+        <v>0.5373880883375488</v>
       </c>
       <c r="H84">
-        <v>0.5126032039523125</v>
+        <v>0.535784101486206</v>
       </c>
       <c r="I84">
-        <v>0.5171883970499038</v>
+        <v>0.5407396038373311</v>
       </c>
       <c r="L84">
-        <v>40.67751212427889</v>
+        <v>44.37798672719703</v>
       </c>
       <c r="M84">
-        <v>41.38801500529246</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>45.22267336456719</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>0.5047118663787842</v>
+        <v>0.5323227643966675</v>
       </c>
       <c r="C85">
-        <v>0.5177491307258606</v>
+        <v>0.533735454082489</v>
       </c>
       <c r="D85">
-        <v>0.500424861907959</v>
+        <v>0.5260513424873352</v>
       </c>
       <c r="E85">
-        <v>0.5168938040733337</v>
+        <v>0.5260513424873352</v>
       </c>
       <c r="F85">
-        <v>52710976</v>
+        <v>4343104</v>
       </c>
       <c r="G85">
-        <v>0.5173117190842524</v>
+        <v>0.5363574750784385</v>
       </c>
       <c r="H85">
-        <v>0.5123922303318977</v>
+        <v>0.534771379828453</v>
       </c>
       <c r="I85">
-        <v>0.5167764653762181</v>
+        <v>0.5394042332967123</v>
       </c>
       <c r="L85">
-        <v>51.18203456598059</v>
+        <v>37.83495578283092</v>
       </c>
       <c r="M85">
-        <v>48.09761079924009</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>41.26319348735913</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>0.5171294808387756</v>
+        <v>0.5259343385696411</v>
       </c>
       <c r="C86">
-        <v>0.587178111076355</v>
+        <v>0.528667688369751</v>
       </c>
       <c r="D86">
-        <v>0.5121724009513855</v>
+        <v>0.5238004326820374</v>
       </c>
       <c r="E86">
-        <v>0.5664002895355225</v>
+        <v>0.5279759168624878</v>
       </c>
       <c r="F86">
-        <v>293976128</v>
+        <v>4256416</v>
       </c>
       <c r="G86">
-        <v>0.5217743163980042</v>
+        <v>0.5355955152406248</v>
       </c>
       <c r="H86">
-        <v>0.5149454697966576</v>
+        <v>0.5339075475931168</v>
       </c>
       <c r="I86">
-        <v>0.5176230023304621</v>
+        <v>0.5384297728538513</v>
       </c>
       <c r="L86">
-        <v>71.73878201558287</v>
+        <v>40.85662751025772</v>
       </c>
       <c r="M86">
-        <v>64.2087314213901</v>
-      </c>
-      <c r="O86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>42.92094955368716</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>0.5666166543960571</v>
+        <v>0.527937114238739</v>
       </c>
       <c r="C87">
-        <v>0.580902099609375</v>
+        <v>0.5293730497360229</v>
       </c>
       <c r="D87">
-        <v>0.5647451877593994</v>
+        <v>0.524847149848938</v>
       </c>
       <c r="E87">
-        <v>0.5804896354675293</v>
+        <v>0.5269182920455933</v>
       </c>
       <c r="F87">
-        <v>152509632</v>
+        <v>692864</v>
       </c>
       <c r="G87">
-        <v>0.527112072677052</v>
+        <v>0.5348066767683491</v>
       </c>
       <c r="H87">
-        <v>0.5180963233113289</v>
+        <v>0.5329382240772247</v>
       </c>
       <c r="I87">
-        <v>0.5191347350676855</v>
+        <v>0.5377494812011718</v>
       </c>
       <c r="L87">
-        <v>75.09631029931278</v>
+        <v>39.66468715538114</v>
       </c>
       <c r="M87">
-        <v>67.31801442373674</v>
-      </c>
-      <c r="O87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>42.21582283527395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>0.5815929174423218</v>
+        <v>0.5270706415176392</v>
       </c>
       <c r="C88">
-        <v>0.5836857557296753</v>
+        <v>0.5272493958473206</v>
       </c>
       <c r="D88">
-        <v>0.5625188946723938</v>
+        <v>0.5203138589859009</v>
       </c>
       <c r="E88">
-        <v>0.5760685205459595</v>
+        <v>0.5208867192268372</v>
       </c>
       <c r="F88">
-        <v>89373568</v>
+        <v>5322528</v>
       </c>
       <c r="G88">
-        <v>0.5315626588469526</v>
+        <v>0.5335412260827571</v>
       </c>
       <c r="H88">
-        <v>0.5221915766596794</v>
+        <v>0.5320944428443909</v>
       </c>
       <c r="I88">
-        <v>0.5210957835117976</v>
+        <v>0.5369267662366232</v>
       </c>
       <c r="L88">
-        <v>72.07358671757738</v>
+        <v>33.41103885869988</v>
       </c>
       <c r="M88">
-        <v>65.3981340322505</v>
-      </c>
-      <c r="O88" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>38.34672465213308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>0.5761144161224365</v>
+        <v>0.5208832025527954</v>
       </c>
       <c r="C89">
-        <v>0.598476767539978</v>
+        <v>0.524188220500946</v>
       </c>
       <c r="D89">
-        <v>0.5757116079330444</v>
+        <v>0.5199445486068726</v>
       </c>
       <c r="E89">
-        <v>0.598476767539978</v>
+        <v>0.524188220500946</v>
       </c>
       <c r="F89">
-        <v>95153792</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>0.5376457596372276</v>
+        <v>0.532690952848047</v>
       </c>
       <c r="H89">
-        <v>0.5283303260803223</v>
+        <v>0.5320038914680481</v>
       </c>
       <c r="I89">
-        <v>0.5236812581618627</v>
+        <v>0.5360788961251577</v>
       </c>
       <c r="L89">
-        <v>77.28661712195701</v>
+        <v>39.30386802919084</v>
       </c>
       <c r="M89">
-        <v>70.05903087333097</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>41.50685531275125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>0.5992663502693176</v>
+        <v>0.5242043733596802</v>
       </c>
       <c r="C90">
-        <v>0.61579430103302</v>
+        <v>0.5249891877174377</v>
       </c>
       <c r="D90">
-        <v>0.582416296005249</v>
+        <v>0.5157259106636047</v>
       </c>
       <c r="E90">
-        <v>0.5830392837524414</v>
+        <v>0.5163660645484924</v>
       </c>
       <c r="F90">
-        <v>188219392</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.5417724436477016</v>
+        <v>0.531206872093542</v>
       </c>
       <c r="H90">
-        <v>0.532988753914833</v>
+        <v>0.5309641867876053</v>
       </c>
       <c r="I90">
-        <v>0.52556691467762</v>
+        <v>0.534997804959615</v>
       </c>
       <c r="L90">
-        <v>67.51833930175519</v>
+        <v>31.80236130755716</v>
       </c>
       <c r="M90">
-        <v>63.69371624393771</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>36.70632246120459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>0.5829740762710571</v>
+        <v>0.5164029598236084</v>
       </c>
       <c r="C91">
-        <v>0.5868498086929321</v>
+        <v>0.519589900970459</v>
       </c>
       <c r="D91">
-        <v>0.5730589032173157</v>
+        <v>0.5117465257644653</v>
       </c>
       <c r="E91">
-        <v>0.5829071402549744</v>
+        <v>0.519589900970459</v>
       </c>
       <c r="F91">
-        <v>63134080</v>
+        <v>15168704</v>
       </c>
       <c r="G91">
-        <v>0.54551196152109</v>
+        <v>0.5301507838096253</v>
       </c>
       <c r="H91">
-        <v>0.5372045546770096</v>
+        <v>0.5300897419452667</v>
       </c>
       <c r="I91">
-        <v>0.5275885750850041</v>
+        <v>0.5339719951152802</v>
       </c>
       <c r="L91">
-        <v>67.43626088100362</v>
+        <v>37.34677573625406</v>
       </c>
       <c r="M91">
-        <v>63.64041434097763</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>39.7967648708352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>0.5829349756240845</v>
+        <v>0.5196032524108887</v>
       </c>
       <c r="C92">
-        <v>0.5871531367301941</v>
+        <v>0.5212799906730652</v>
       </c>
       <c r="D92">
-        <v>0.5761740803718567</v>
+        <v>0.4994441866874695</v>
       </c>
       <c r="E92">
-        <v>0.5821986794471741</v>
+        <v>0.4994441866874695</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>53167232</v>
       </c>
       <c r="G92">
-        <v>0.5488471176961885</v>
+        <v>0.5273592749803384</v>
       </c>
       <c r="H92">
-        <v>0.5407156080007554</v>
+        <v>0.5282476454973221</v>
       </c>
       <c r="I92">
-        <v>0.5295735687017441</v>
+        <v>0.5323547422885895</v>
       </c>
       <c r="L92">
-        <v>66.94540884871486</v>
+        <v>23.76440684742611</v>
       </c>
       <c r="M92">
-        <v>63.33440089570322</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>29.95412971519556</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>0.5821335911750793</v>
+        <v>0.4994182586669922</v>
       </c>
       <c r="C93">
-        <v>0.5830472707748413</v>
+        <v>0.5041846632957458</v>
       </c>
       <c r="D93">
-        <v>0.5741024017333984</v>
+        <v>0.4974594414234161</v>
       </c>
       <c r="E93">
-        <v>0.5799898505210876</v>
+        <v>0.5018849968910217</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>34849472</v>
       </c>
       <c r="G93">
-        <v>0.5516782752257248</v>
+        <v>0.5250434315176732</v>
       </c>
       <c r="H93">
-        <v>0.5426422953605652</v>
+        <v>0.5270807623863221</v>
       </c>
       <c r="I93">
-        <v>0.5315190404653549</v>
+        <v>0.5307726542154948</v>
       </c>
       <c r="L93">
-        <v>65.27882109018915</v>
+        <v>27.36498546304525</v>
       </c>
       <c r="M93">
-        <v>62.32811260251408</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>32.14385104913994</v>
+      </c>
+      <c r="N93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>0.5799358487129211</v>
+        <v>0.5018820762634277</v>
       </c>
       <c r="C94">
-        <v>0.5877018570899963</v>
+        <v>0.5033048391342163</v>
       </c>
       <c r="D94">
-        <v>0.5783522725105286</v>
+        <v>0.4888988435268402</v>
       </c>
       <c r="E94">
-        <v>0.5788283944129944</v>
+        <v>0.4934073388576507</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>31585504</v>
       </c>
       <c r="G94">
-        <v>0.5541464678791128</v>
+        <v>0.5221674230940347</v>
       </c>
       <c r="H94">
-        <v>0.5445380002260208</v>
+        <v>0.5250622376799583</v>
       </c>
       <c r="I94">
-        <v>0.5332452148199082</v>
+        <v>0.5290798336267472</v>
       </c>
       <c r="L94">
-        <v>64.331441733071</v>
+        <v>23.10162999600938</v>
       </c>
       <c r="M94">
-        <v>61.77233356025329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>28.77870353346194</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>0.5788419842720032</v>
+        <v>0.4934442043304443</v>
       </c>
       <c r="C95">
-        <v>0.5832133889198303</v>
+        <v>0.5003619790077209</v>
       </c>
       <c r="D95">
-        <v>0.5733166337013245</v>
+        <v>0.4934442043304443</v>
       </c>
       <c r="E95">
-        <v>0.5813676118850708</v>
+        <v>0.4994018971920013</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>21263712</v>
       </c>
       <c r="G95">
-        <v>0.5566211173341998</v>
+        <v>0.5200978298302135</v>
       </c>
       <c r="H95">
-        <v>0.5472079545259476</v>
+        <v>0.5236230999231338</v>
       </c>
       <c r="I95">
-        <v>0.5352536926666895</v>
+        <v>0.527516371011734</v>
       </c>
       <c r="L95">
-        <v>65.56073391782905</v>
+        <v>31.5810569352</v>
       </c>
       <c r="M95">
-        <v>62.55839133701663</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>34.03730850591915</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>0.581299901008606</v>
+        <v>0.4994236826896667</v>
       </c>
       <c r="C96">
-        <v>0.5856621861457825</v>
+        <v>0.5009319186210632</v>
       </c>
       <c r="D96">
-        <v>0.5661124587059021</v>
+        <v>0.4976414740085602</v>
       </c>
       <c r="E96">
-        <v>0.5661124587059021</v>
+        <v>0.5003516674041748</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1188704</v>
       </c>
       <c r="G96">
-        <v>0.557483966549809</v>
+        <v>0.518302724155119</v>
       </c>
       <c r="H96">
-        <v>0.5489725559949875</v>
+        <v>0.5219350725412368</v>
       </c>
       <c r="I96">
-        <v>0.5369462579488754</v>
+        <v>0.526019674539566</v>
       </c>
       <c r="L96">
-        <v>53.17443291451151</v>
+        <v>32.89988002241325</v>
       </c>
       <c r="M96">
-        <v>55.21293363219223</v>
+        <v>34.85797735555982</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4126,34 +4111,37 @@
         <v>109</v>
       </c>
       <c r="B97">
-        <v>0.5661728978157043</v>
+        <v>0.5003544092178345</v>
       </c>
       <c r="C97">
-        <v>0.5700787305831909</v>
+        <v>0.5003544092178345</v>
       </c>
       <c r="D97">
-        <v>0.5466439127922058</v>
+        <v>0.488760381937027</v>
       </c>
       <c r="E97">
-        <v>0.5572097301483154</v>
+        <v>0.4889420866966247</v>
       </c>
       <c r="F97">
-        <v>24582976</v>
+        <v>10924768</v>
       </c>
       <c r="G97">
-        <v>0.5574590359678551</v>
+        <v>0.5156335752952559</v>
       </c>
       <c r="H97">
-        <v>0.5507524758577347</v>
+        <v>0.5197754353284836</v>
       </c>
       <c r="I97">
-        <v>0.5382708301146825</v>
+        <v>0.5241075853506724</v>
       </c>
       <c r="L97">
-        <v>47.3065891624036</v>
+        <v>26.10058253236479</v>
       </c>
       <c r="M97">
-        <v>51.41852461683206</v>
+        <v>30.02525247038538</v>
+      </c>
+      <c r="N97" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4161,34 +4149,34 @@
         <v>110</v>
       </c>
       <c r="B98">
-        <v>0.5573800206184387</v>
+        <v>0.4888440668582916</v>
       </c>
       <c r="C98">
-        <v>0.5649511814117432</v>
+        <v>0.4973934292793274</v>
       </c>
       <c r="D98">
-        <v>0.5361053347587585</v>
+        <v>0.4742743074893951</v>
       </c>
       <c r="E98">
-        <v>0.5473270416259766</v>
+        <v>0.4971038997173309</v>
       </c>
       <c r="F98">
-        <v>56114560</v>
+        <v>31211104</v>
       </c>
       <c r="G98">
-        <v>0.5565379455731388</v>
+        <v>0.5139490593336263</v>
       </c>
       <c r="H98">
-        <v>0.5525911092758179</v>
+        <v>0.5177883133292198</v>
       </c>
       <c r="I98">
-        <v>0.5400429497162501</v>
+        <v>0.5227523038784663</v>
       </c>
       <c r="L98">
-        <v>41.57688591101827</v>
+        <v>36.6387052422624</v>
       </c>
       <c r="M98">
-        <v>47.51488545666709</v>
+        <v>36.77770845804109</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4196,34 +4184,34 @@
         <v>111</v>
       </c>
       <c r="B99">
-        <v>0.5473010540008545</v>
+        <v>0.4971450269222259</v>
       </c>
       <c r="C99">
-        <v>0.5494604706764221</v>
+        <v>0.5031188726425171</v>
       </c>
       <c r="D99">
-        <v>0.5370948910713196</v>
+        <v>0.4956430196762085</v>
       </c>
       <c r="E99">
-        <v>0.5455681681632996</v>
+        <v>0.5031188726425171</v>
       </c>
       <c r="F99">
-        <v>10679744</v>
+        <v>8292288</v>
       </c>
       <c r="G99">
-        <v>0.5555406930813352</v>
+        <v>0.5129644969071618</v>
       </c>
       <c r="H99">
-        <v>0.5545951366424561</v>
+        <v>0.5158703371882438</v>
       </c>
       <c r="I99">
-        <v>0.5423718293507894</v>
+        <v>0.5219896246989568</v>
       </c>
       <c r="L99">
-        <v>40.59249354931305</v>
+        <v>43.33778767053607</v>
       </c>
       <c r="M99">
-        <v>46.83341032741255</v>
+        <v>41.27523205066353</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4231,34 +4219,34 @@
         <v>112</v>
       </c>
       <c r="B100">
-        <v>0.5455713868141174</v>
+        <v>0.5031479001045227</v>
       </c>
       <c r="C100">
-        <v>0.5530081391334534</v>
+        <v>0.5089091658592224</v>
       </c>
       <c r="D100">
-        <v>0.545101523399353</v>
+        <v>0.4996326267719269</v>
       </c>
       <c r="E100">
-        <v>0.5496243238449097</v>
+        <v>0.5051217675209045</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0.5550028413325693</v>
+        <v>0.5122515215084111</v>
       </c>
       <c r="H100">
-        <v>0.5565024048089982</v>
+        <v>0.5141427025198937</v>
       </c>
       <c r="I100">
-        <v>0.5443636159102122</v>
+        <v>0.5209216783444087</v>
       </c>
       <c r="L100">
-        <v>44.03045196164202</v>
+        <v>45.49648995838571</v>
       </c>
       <c r="M100">
-        <v>48.66203134444641</v>
+        <v>42.7360420788447</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4266,34 +4254,34 @@
         <v>113</v>
       </c>
       <c r="B101">
-        <v>0.5496251583099365</v>
+        <v>0.5051486492156982</v>
       </c>
       <c r="C101">
-        <v>0.5515236854553223</v>
+        <v>0.5168223977088928</v>
       </c>
       <c r="D101">
-        <v>0.5473456978797913</v>
+        <v>0.5051486492156982</v>
       </c>
       <c r="E101">
-        <v>0.5487987995147705</v>
+        <v>0.5149731040000916</v>
       </c>
       <c r="F101">
-        <v>2447296</v>
+        <v>12958464</v>
       </c>
       <c r="G101">
-        <v>0.5544388375309511</v>
+        <v>0.5124989380985638</v>
       </c>
       <c r="H101">
-        <v>0.5582840830087662</v>
+        <v>0.5131148353219033</v>
       </c>
       <c r="I101">
-        <v>0.546037205060323</v>
+        <v>0.5201848218838374</v>
       </c>
       <c r="L101">
-        <v>43.45466282883977</v>
+        <v>54.9858657542703</v>
       </c>
       <c r="M101">
-        <v>48.29793741920997</v>
+        <v>49.40288017470717</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4301,34 +4289,34 @@
         <v>114</v>
       </c>
       <c r="B102">
-        <v>0.548764705657959</v>
+        <v>0.5148373246192932</v>
       </c>
       <c r="C102">
-        <v>0.5512260794639587</v>
+        <v>0.5161892771720886</v>
       </c>
       <c r="D102">
-        <v>0.5447241067886353</v>
+        <v>0.5105311274528503</v>
       </c>
       <c r="E102">
-        <v>0.5503641963005066</v>
+        <v>0.5144951343536377</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>32744320</v>
       </c>
       <c r="G102">
-        <v>0.5540684156009107</v>
+        <v>0.5126804104853887</v>
       </c>
       <c r="H102">
-        <v>0.560407230257988</v>
+        <v>0.5120551869273186</v>
       </c>
       <c r="I102">
-        <v>0.5473167578379313</v>
+        <v>0.5194584558407466</v>
       </c>
       <c r="L102">
-        <v>44.98929608545525</v>
+        <v>54.46824197521828</v>
       </c>
       <c r="M102">
-        <v>49.07601839181301</v>
+        <v>49.10417221963326</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4336,34 +4324,34 @@
         <v>115</v>
       </c>
       <c r="B103">
-        <v>0.5503928661346436</v>
+        <v>0.5147067904472351</v>
       </c>
       <c r="C103">
-        <v>0.5505045056343079</v>
+        <v>0.5166653394699097</v>
       </c>
       <c r="D103">
-        <v>0.5426533222198486</v>
+        <v>0.5109823942184448</v>
       </c>
       <c r="E103">
-        <v>0.5479617714881897</v>
+        <v>0.5109823942184448</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>8710368</v>
       </c>
       <c r="G103">
-        <v>0.553513266136118</v>
+        <v>0.512526045370212</v>
       </c>
       <c r="H103">
-        <v>0.5621480941772461</v>
+        <v>0.5111751690506935</v>
       </c>
       <c r="I103">
-        <v>0.5475336134433746</v>
+        <v>0.5189837803443272</v>
       </c>
       <c r="L103">
-        <v>42.97553923233855</v>
+        <v>50.53497492483672</v>
       </c>
       <c r="M103">
-        <v>47.88497859248529</v>
+        <v>46.86162176536681</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4371,34 +4359,34 @@
         <v>116</v>
       </c>
       <c r="B104">
-        <v>0.5478378534317017</v>
+        <v>0.5109457969665527</v>
       </c>
       <c r="C104">
-        <v>0.5508208870887756</v>
+        <v>0.5122449994087219</v>
       </c>
       <c r="D104">
-        <v>0.5469297766685486</v>
+        <v>0.508267879486084</v>
       </c>
       <c r="E104">
-        <v>0.5493476390838623</v>
+        <v>0.5106508731842041</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.553134572767731</v>
+        <v>0.512355575171484</v>
       </c>
       <c r="H104">
-        <v>0.5644487053155899</v>
+        <v>0.5100927338004112</v>
       </c>
       <c r="I104">
-        <v>0.5478147248427073</v>
+        <v>0.5182128816843032</v>
       </c>
       <c r="L104">
-        <v>44.58524935331431</v>
+        <v>50.15046932803102</v>
       </c>
       <c r="M104">
-        <v>48.65904376130351</v>
+        <v>46.64511089412389</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -4406,34 +4394,34 @@
         <v>117</v>
       </c>
       <c r="B105">
-        <v>0.549369215965271</v>
+        <v>0.5106499791145325</v>
       </c>
       <c r="C105">
-        <v>0.5493801832199097</v>
+        <v>0.5153571963310242</v>
       </c>
       <c r="D105">
-        <v>0.5439460873603821</v>
+        <v>0.510439932346344</v>
       </c>
       <c r="E105">
-        <v>0.5441919565200806</v>
+        <v>0.5149267911911011</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>5137120</v>
       </c>
       <c r="G105">
-        <v>0.5523216076543083</v>
+        <v>0.5125893220823583</v>
       </c>
       <c r="H105">
-        <v>0.5658136129379272</v>
+        <v>0.5095365062355995</v>
       </c>
       <c r="I105">
-        <v>0.5483555058638255</v>
+        <v>0.5177709529797236</v>
       </c>
       <c r="L105">
-        <v>39.87441567216635</v>
+        <v>55.10681750707059</v>
       </c>
       <c r="M105">
-        <v>45.92614400779807</v>
+        <v>49.86267017885476</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -4441,34 +4429,34 @@
         <v>118</v>
       </c>
       <c r="B106">
-        <v>0.5441601276397705</v>
+        <v>0.515005886554718</v>
       </c>
       <c r="C106">
-        <v>0.5495657920837402</v>
+        <v>0.5191031098365784</v>
       </c>
       <c r="D106">
-        <v>0.5420556664466858</v>
+        <v>0.5132045745849609</v>
       </c>
       <c r="E106">
-        <v>0.546305775642395</v>
+        <v>0.516981303691864</v>
       </c>
       <c r="F106">
-        <v>5247968</v>
+        <v>86080</v>
       </c>
       <c r="G106">
-        <v>0.5517747138350434</v>
+        <v>0.5129885931377679</v>
       </c>
       <c r="H106">
-        <v>0.5648088872432708</v>
+        <v>0.5089867755770683</v>
       </c>
       <c r="I106">
-        <v>0.5488716840744019</v>
+        <v>0.5171999226013819</v>
       </c>
       <c r="L106">
-        <v>42.66846651592042</v>
+        <v>57.39651346441671</v>
       </c>
       <c r="M106">
-        <v>47.23464874959072</v>
+        <v>51.37983534916819</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -4476,34 +4464,34 @@
         <v>119</v>
       </c>
       <c r="B107">
-        <v>0.5464502573013306</v>
+        <v>0.5170592665672302</v>
       </c>
       <c r="C107">
-        <v>0.5481595993041992</v>
+        <v>0.5193753242492676</v>
       </c>
       <c r="D107">
-        <v>0.5443957448005676</v>
+        <v>0.5141723155975342</v>
       </c>
       <c r="E107">
-        <v>0.5452525615692139</v>
+        <v>0.5154535174369812</v>
       </c>
       <c r="F107">
-        <v>6516096</v>
+        <v>2009696</v>
       </c>
       <c r="G107">
-        <v>0.5511817909017861</v>
+        <v>0.5132126771649691</v>
       </c>
       <c r="H107">
-        <v>0.5630470335483551</v>
+        <v>0.5084135368466377</v>
       </c>
       <c r="I107">
-        <v>0.5496597250302633</v>
+        <v>0.5166438788175582</v>
       </c>
       <c r="L107">
-        <v>41.58524904726968</v>
+        <v>55.04772901280468</v>
       </c>
       <c r="M107">
-        <v>46.62919717438115</v>
+        <v>50.16419801261972</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -4511,34 +4499,34 @@
         <v>120</v>
       </c>
       <c r="B108">
-        <v>0.5452225804328918</v>
+        <v>0.515453577041626</v>
       </c>
       <c r="C108">
-        <v>0.5465789437294006</v>
+        <v>0.5195667147636414</v>
       </c>
       <c r="D108">
-        <v>0.5430286526679993</v>
+        <v>0.5149784684181213</v>
       </c>
       <c r="E108">
-        <v>0.5463047623634338</v>
+        <v>0.5172849893569946</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.5507384246710267</v>
+        <v>0.5135828873642441</v>
       </c>
       <c r="H108">
-        <v>0.5615588456392289</v>
+        <v>0.5082334503531456</v>
       </c>
       <c r="I108">
-        <v>0.5508514046669006</v>
+        <v>0.5159918338060379</v>
       </c>
       <c r="L108">
-        <v>43.20574344294861</v>
+        <v>57.39882016278759</v>
       </c>
       <c r="M108">
-        <v>47.35520420066815</v>
+        <v>51.64129276073745</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -4546,34 +4534,34 @@
         <v>121</v>
       </c>
       <c r="B109">
-        <v>0.5462678670883179</v>
+        <v>0.5173245668411255</v>
       </c>
       <c r="C109">
-        <v>0.5475651025772095</v>
+        <v>0.5195180773735046</v>
       </c>
       <c r="D109">
-        <v>0.5377623438835144</v>
+        <v>0.5144600868225098</v>
       </c>
       <c r="E109">
-        <v>0.5377623438835144</v>
+        <v>0.5144600868225098</v>
       </c>
       <c r="F109">
-        <v>10327808</v>
+        <v>424672</v>
       </c>
       <c r="G109">
-        <v>0.549558780963071</v>
+        <v>0.5136626327695409</v>
       </c>
       <c r="H109">
-        <v>0.5585231244564056</v>
+        <v>0.5077470436692237</v>
       </c>
       <c r="I109">
-        <v>0.5519272287686666</v>
+        <v>0.5150912235180537</v>
       </c>
       <c r="L109">
-        <v>34.47158611003626</v>
+        <v>52.62298795905683</v>
       </c>
       <c r="M109">
-        <v>42.3217346145691</v>
+        <v>49.21814429140437</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -4581,37 +4569,34 @@
         <v>122</v>
       </c>
       <c r="B110">
-        <v>0.5378013849258423</v>
+        <v>0.5144678354263306</v>
       </c>
       <c r="C110">
-        <v>0.539440929889679</v>
+        <v>0.5144678354263306</v>
       </c>
       <c r="D110">
-        <v>0.5259992480278015</v>
+        <v>0.5113962292671204</v>
       </c>
       <c r="E110">
-        <v>0.5259992480278015</v>
+        <v>0.5114966034889221</v>
       </c>
       <c r="F110">
-        <v>45552384</v>
+        <v>4524672</v>
       </c>
       <c r="G110">
-        <v>0.5474170052416828</v>
+        <v>0.5134657210167574</v>
       </c>
       <c r="H110">
-        <v>0.5556711226701736</v>
+        <v>0.5075035706162453</v>
       </c>
       <c r="I110">
-        <v>0.5524112383524576</v>
+        <v>0.5141519616047542</v>
       </c>
       <c r="L110">
-        <v>26.25077061948576</v>
+        <v>47.91762704663286</v>
       </c>
       <c r="M110">
-        <v>36.55910431224498</v>
-      </c>
-      <c r="N110" t="s">
-        <v>195</v>
+        <v>46.74038610909498</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -4619,34 +4604,34 @@
         <v>123</v>
       </c>
       <c r="B111">
-        <v>0.525907576084137</v>
+        <v>0.5115006566047668</v>
       </c>
       <c r="C111">
-        <v>0.5386354923248291</v>
+        <v>0.5122119784355164</v>
       </c>
       <c r="D111">
-        <v>0.5258086323738098</v>
+        <v>0.5031810998916626</v>
       </c>
       <c r="E111">
-        <v>0.5371601581573486</v>
+        <v>0.5031810998916626</v>
       </c>
       <c r="F111">
-        <v>17306016</v>
+        <v>2410560</v>
       </c>
       <c r="G111">
-        <v>0.5464845645976524</v>
+        <v>0.5125307554599305</v>
       </c>
       <c r="H111">
-        <v>0.5533837735652923</v>
+        <v>0.5066831305623054</v>
       </c>
       <c r="I111">
-        <v>0.5532110691070556</v>
+        <v>0.5130736500024795</v>
       </c>
       <c r="L111">
-        <v>41.21489831425821</v>
+        <v>37.36953862709458</v>
       </c>
       <c r="M111">
-        <v>44.30757643631775</v>
+        <v>40.56880243353329</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -4654,2382 +4639,2385 @@
         <v>124</v>
       </c>
       <c r="B112">
-        <v>0.5371806025505066</v>
+        <v>0.5031554698944092</v>
       </c>
       <c r="C112">
-        <v>0.5405462980270386</v>
+        <v>0.5050894021987915</v>
       </c>
       <c r="D112">
-        <v>0.5354539752006531</v>
+        <v>0.4952265918254852</v>
       </c>
       <c r="E112">
-        <v>0.5370787978172302</v>
+        <v>0.4963437616825104</v>
       </c>
       <c r="F112">
-        <v>2979680</v>
+        <v>17278176</v>
       </c>
       <c r="G112">
-        <v>0.5456294948903413</v>
+        <v>0.5110592105710742</v>
       </c>
       <c r="H112">
-        <v>0.5511277794837952</v>
+        <v>0.5065281093120575</v>
       </c>
       <c r="I112">
-        <v>0.5541836539904277</v>
+        <v>0.5117621719837189</v>
       </c>
       <c r="L112">
-        <v>41.1464296677903</v>
+        <v>31.04751234988701</v>
       </c>
       <c r="M112">
-        <v>44.26513340693823</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>36.32204191055377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>0.5370869636535645</v>
+        <v>0.4963444471359253</v>
       </c>
       <c r="C113">
-        <v>0.5393713116645813</v>
+        <v>0.50068598985672</v>
       </c>
       <c r="D113">
-        <v>0.5362620949745178</v>
+        <v>0.4937167167663574</v>
       </c>
       <c r="E113">
-        <v>0.5362861156463623</v>
+        <v>0.4978362619876861</v>
       </c>
       <c r="F113">
-        <v>4788960</v>
+        <v>13277168</v>
       </c>
       <c r="G113">
-        <v>0.5447800967772523</v>
+        <v>0.5098571243362207</v>
       </c>
       <c r="H113">
-        <v>0.5489425927400589</v>
+        <v>0.5063256725668908</v>
       </c>
       <c r="I113">
-        <v>0.5549550414085388</v>
+        <v>0.5107372889916102</v>
       </c>
       <c r="L113">
-        <v>40.41060936571296</v>
+        <v>33.79787753638273</v>
       </c>
       <c r="M113">
-        <v>43.82466174844544</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>37.85139930658188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>0.5362826585769653</v>
+        <v>0.4978293478488922</v>
       </c>
       <c r="C114">
-        <v>0.5373595356941223</v>
+        <v>0.4980672597885132</v>
       </c>
       <c r="D114">
-        <v>0.5249813795089722</v>
+        <v>0.4878982007503509</v>
       </c>
       <c r="E114">
-        <v>0.5252226591110229</v>
+        <v>0.4936710894107818</v>
       </c>
       <c r="F114">
-        <v>20794208</v>
+        <v>41875696</v>
       </c>
       <c r="G114">
-        <v>0.5430021478985041</v>
+        <v>0.5083856666157263</v>
       </c>
       <c r="H114">
-        <v>0.5462623059749603</v>
+        <v>0.5063388600945473</v>
       </c>
       <c r="I114">
-        <v>0.5556846161683401</v>
+        <v>0.5094496726989746</v>
       </c>
       <c r="L114">
-        <v>31.55127982918017</v>
+        <v>30.03639288810076</v>
       </c>
       <c r="M114">
-        <v>38.12279169394711</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>35.30317923779975</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>0.5252578258514404</v>
+        <v>0.4936183094978332</v>
       </c>
       <c r="C115">
-        <v>0.5353387594223022</v>
+        <v>0.498540312051773</v>
       </c>
       <c r="D115">
-        <v>0.5251574516296387</v>
+        <v>0.4887072741985321</v>
       </c>
       <c r="E115">
-        <v>0.5337778329849243</v>
+        <v>0.4942556619644165</v>
       </c>
       <c r="F115">
-        <v>6877056</v>
+        <v>30489664</v>
       </c>
       <c r="G115">
-        <v>0.5421635738154513</v>
+        <v>0.5071011207383345</v>
       </c>
       <c r="H115">
-        <v>0.543882817029953</v>
+        <v>0.506081548333168</v>
       </c>
       <c r="I115">
-        <v>0.5562474171320597</v>
+        <v>0.508389816681544</v>
       </c>
       <c r="L115">
-        <v>42.5148426678911</v>
+        <v>31.24458150175042</v>
       </c>
       <c r="M115">
-        <v>44.17168535999856</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>35.95485461519363</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>0.5337784886360168</v>
+        <v>0.4944271147251129</v>
       </c>
       <c r="C116">
-        <v>0.536559522151947</v>
+        <v>0.4959342181682586</v>
       </c>
       <c r="D116">
-        <v>0.5258715152740479</v>
+        <v>0.479404091835022</v>
       </c>
       <c r="E116">
-        <v>0.5281846523284912</v>
+        <v>0.4818538725376129</v>
       </c>
       <c r="F116">
-        <v>678560</v>
+        <v>66448608</v>
       </c>
       <c r="G116">
-        <v>0.5408927627711821</v>
+        <v>0.5048059163564507</v>
       </c>
       <c r="H116">
-        <v>0.5419864267110824</v>
+        <v>0.5051566585898399</v>
       </c>
       <c r="I116">
-        <v>0.5549735625584921</v>
+        <v>0.5068524152040481</v>
       </c>
       <c r="L116">
-        <v>38.03417339532874</v>
+        <v>22.12545543064688</v>
       </c>
       <c r="M116">
-        <v>41.32724775124271</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>29.22842752459517</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>0.5280497670173645</v>
+        <v>0.4817930161952972</v>
       </c>
       <c r="C117">
-        <v>0.5341122150421143</v>
+        <v>0.4885843992233276</v>
       </c>
       <c r="D117">
-        <v>0.5279622077941895</v>
+        <v>0.4780497252941131</v>
       </c>
       <c r="E117">
-        <v>0.5341122150421143</v>
+        <v>0.4783739149570465</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>40295136</v>
       </c>
       <c r="G117">
-        <v>0.5402763493412669</v>
+        <v>0.502403007138323</v>
       </c>
       <c r="H117">
-        <v>0.5408315509557724</v>
+        <v>0.504628250002861</v>
       </c>
       <c r="I117">
-        <v>0.5534276485443115</v>
+        <v>0.5052342693010966</v>
       </c>
       <c r="L117">
-        <v>44.95120786451865</v>
+        <v>20.25891732937404</v>
       </c>
       <c r="M117">
-        <v>45.34414849692052</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>27.66447482996107</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>0.5341799855232239</v>
+        <v>0.4784902930259704</v>
       </c>
       <c r="C118">
-        <v>0.5346192121505737</v>
+        <v>0.4853377342224121</v>
       </c>
       <c r="D118">
-        <v>0.5305930972099304</v>
+        <v>0.4784902930259704</v>
       </c>
       <c r="E118">
-        <v>0.5321348309516907</v>
+        <v>0.4834120571613312</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>5360160</v>
       </c>
       <c r="G118">
-        <v>0.5395362113058508</v>
+        <v>0.5006765571404146</v>
       </c>
       <c r="H118">
-        <v>0.5400719404220581</v>
+        <v>0.503943657875061</v>
       </c>
       <c r="I118">
-        <v>0.5519631922245025</v>
+        <v>0.5039851138989131</v>
       </c>
       <c r="L118">
-        <v>43.14381070748857</v>
+        <v>29.89192053241879</v>
       </c>
       <c r="M118">
-        <v>44.2556620068469</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>33.23443210315005</v>
+      </c>
+      <c r="N118" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>0.5321441292762756</v>
+        <v>0.4833269715309143</v>
       </c>
       <c r="C119">
-        <v>0.5370820164680481</v>
+        <v>0.4851427972316742</v>
       </c>
       <c r="D119">
-        <v>0.5314306616783142</v>
+        <v>0.4744406044483185</v>
       </c>
       <c r="E119">
-        <v>0.5368463397026062</v>
+        <v>0.4744448661804199</v>
       </c>
       <c r="F119">
-        <v>2845568</v>
+        <v>8915040</v>
       </c>
       <c r="G119">
-        <v>0.5392916775237376</v>
+        <v>0.4982918579622332</v>
       </c>
       <c r="H119">
-        <v>0.5396358489990234</v>
+        <v>0.5025099575519562</v>
       </c>
       <c r="I119">
-        <v>0.5499088446299235</v>
+        <v>0.5023270020882289</v>
       </c>
       <c r="L119">
-        <v>48.67550766444585</v>
+        <v>24.06969867347679</v>
       </c>
       <c r="M119">
-        <v>47.49008459107606</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>28.96007683851412</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>0.5368842482566833</v>
+        <v>0.4744498431682586</v>
       </c>
       <c r="C120">
-        <v>0.5414783954620361</v>
+        <v>0.4755241274833679</v>
       </c>
       <c r="D120">
-        <v>0.5275114178657532</v>
+        <v>0.4556227624416351</v>
       </c>
       <c r="E120">
-        <v>0.5414783954620361</v>
+        <v>0.456658661365509</v>
       </c>
       <c r="F120">
-        <v>26495424</v>
+        <v>68531840</v>
       </c>
       <c r="G120">
-        <v>0.539490470063583</v>
+        <v>0.4945070219079856</v>
       </c>
       <c r="H120">
-        <v>0.5392285525798798</v>
+        <v>0.5000868022441864</v>
       </c>
       <c r="I120">
-        <v>0.54852348168691</v>
+        <v>0.5003367553154627</v>
       </c>
       <c r="L120">
-        <v>53.6618865958234</v>
+        <v>16.77769804325953</v>
       </c>
       <c r="M120">
-        <v>50.52917494370016</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>22.71873406320686</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>0.5414565205574036</v>
+        <v>0.4566946923732757</v>
       </c>
       <c r="C121">
-        <v>0.546018660068512</v>
+        <v>0.4693044424057007</v>
       </c>
       <c r="D121">
-        <v>0.5373335480690002</v>
+        <v>0.4496989250183105</v>
       </c>
       <c r="E121">
-        <v>0.5396744608879089</v>
+        <v>0.4676439464092254</v>
       </c>
       <c r="F121">
-        <v>7216768</v>
+        <v>70164000</v>
       </c>
       <c r="G121">
-        <v>0.5395071965021581</v>
+        <v>0.492064924135371</v>
       </c>
       <c r="H121">
-        <v>0.5387723356485367</v>
+        <v>0.4977203443646431</v>
       </c>
       <c r="I121">
-        <v>0.5470823923746745</v>
+        <v>0.498605223496755</v>
       </c>
       <c r="L121">
-        <v>51.47098620791128</v>
+        <v>31.24977137781439</v>
       </c>
       <c r="M121">
-        <v>49.33171715522111</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>32.40791162037198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>0.5396624207496643</v>
+        <v>0.4674049615859985</v>
       </c>
       <c r="C122">
-        <v>0.54472815990448</v>
+        <v>0.4703700542449951</v>
       </c>
       <c r="D122">
-        <v>0.5355304479598999</v>
+        <v>0.4633021056652069</v>
       </c>
       <c r="E122">
-        <v>0.5355304479598999</v>
+        <v>0.4640251994132995</v>
       </c>
       <c r="F122">
-        <v>3313024</v>
+        <v>11264960</v>
       </c>
       <c r="G122">
-        <v>0.5391456739074073</v>
+        <v>0.4895158582515463</v>
       </c>
       <c r="H122">
-        <v>0.5380306482315064</v>
+        <v>0.4951968476176262</v>
       </c>
       <c r="I122">
-        <v>0.545526784658432</v>
+        <v>0.497424590587616</v>
       </c>
       <c r="L122">
-        <v>46.55842660913795</v>
+        <v>29.35780250332048</v>
       </c>
       <c r="M122">
-        <v>46.59968391157244</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>31.02785771104612</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>0.5356497168540955</v>
+        <v>0.4639700055122375</v>
       </c>
       <c r="C123">
-        <v>0.5387752652168274</v>
+        <v>0.4767217338085174</v>
       </c>
       <c r="D123">
-        <v>0.5346586108207703</v>
+        <v>0.4633508324623108</v>
       </c>
       <c r="E123">
-        <v>0.5356881022453308</v>
+        <v>0.4767217338085174</v>
       </c>
       <c r="F123">
-        <v>4804448</v>
+        <v>821568</v>
       </c>
       <c r="G123">
-        <v>0.5388313492108548</v>
+        <v>0.4883527560294528</v>
       </c>
       <c r="H123">
-        <v>0.5374169647693634</v>
+        <v>0.4934838145971298</v>
       </c>
       <c r="I123">
-        <v>0.5440500597159068</v>
+        <v>0.4965858151515325</v>
       </c>
       <c r="L123">
-        <v>46.77584252799201</v>
+        <v>42.98320751791633</v>
       </c>
       <c r="M123">
-        <v>46.72057343096091</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>40.58736438661141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>0.5356574654579163</v>
+        <v>0.4767625629901886</v>
       </c>
       <c r="C124">
-        <v>0.5356574654579163</v>
+        <v>0.4776602387428283</v>
       </c>
       <c r="D124">
-        <v>0.528582751750946</v>
+        <v>0.4651741981506347</v>
       </c>
       <c r="E124">
-        <v>0.528582751750946</v>
+        <v>0.4651963710784912</v>
       </c>
       <c r="F124">
-        <v>9694336</v>
+        <v>17327680</v>
       </c>
       <c r="G124">
-        <v>0.5378996585326813</v>
+        <v>0.4862476301248199</v>
       </c>
       <c r="H124">
-        <v>0.5363787204027176</v>
+        <v>0.4912110894918442</v>
       </c>
       <c r="I124">
-        <v>0.5423752049605052</v>
+        <v>0.4956454495588938</v>
       </c>
       <c r="L124">
-        <v>38.77713114196465</v>
+        <v>35.90991622806461</v>
       </c>
       <c r="M124">
-        <v>42.09524790418727</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>35.74427631851241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>0.528555691242218</v>
+        <v>0.4651481807231903</v>
       </c>
       <c r="C125">
-        <v>0.5343244075775146</v>
+        <v>0.4709661602973938</v>
       </c>
       <c r="D125">
-        <v>0.5274840593338013</v>
+        <v>0.4647815227508545</v>
       </c>
       <c r="E125">
-        <v>0.5322995781898499</v>
+        <v>0.4692970216274261</v>
       </c>
       <c r="F125">
-        <v>10297664</v>
+        <v>15479936</v>
       </c>
       <c r="G125">
-        <v>0.5373905603196967</v>
+        <v>0.4847066657159659</v>
       </c>
       <c r="H125">
-        <v>0.535784101486206</v>
+        <v>0.4889296010136605</v>
       </c>
       <c r="I125">
-        <v>0.5407396038373311</v>
+        <v>0.4946419537067414</v>
       </c>
       <c r="L125">
-        <v>44.37482445739736</v>
+        <v>39.87051533772995</v>
       </c>
       <c r="M125">
-        <v>45.15404187863184</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>38.55365580498339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>0.5323227643966675</v>
+        <v>0.4693318903446197</v>
       </c>
       <c r="C126">
-        <v>0.533735454082489</v>
+        <v>0.4789560735225677</v>
       </c>
       <c r="D126">
-        <v>0.5260513424873352</v>
+        <v>0.4676756560802459</v>
       </c>
       <c r="E126">
-        <v>0.5260513424873352</v>
+        <v>0.4749318957328796</v>
       </c>
       <c r="F126">
-        <v>4343104</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.5363597223349366</v>
+        <v>0.483818050262958</v>
       </c>
       <c r="H126">
-        <v>0.534771379828453</v>
+        <v>0.4868271306157112</v>
       </c>
       <c r="I126">
-        <v>0.5394042332967123</v>
+        <v>0.4937946279843649</v>
       </c>
       <c r="L126">
-        <v>37.83293625708879</v>
+        <v>45.11395155866715</v>
       </c>
       <c r="M126">
-        <v>41.21275976326852</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>42.28772952680317</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>0.5259343385696411</v>
+        <v>0.4749495983123779</v>
       </c>
       <c r="C127">
-        <v>0.528667688369751</v>
+        <v>0.4766078591346741</v>
       </c>
       <c r="D127">
-        <v>0.5238004326820374</v>
+        <v>0.4697438478469848</v>
       </c>
       <c r="E127">
-        <v>0.5279759168624878</v>
+        <v>0.4727034270763397</v>
       </c>
       <c r="F127">
-        <v>4256416</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.5355975582010776</v>
+        <v>0.4828076299732654</v>
       </c>
       <c r="H127">
-        <v>0.5339075475931168</v>
+        <v>0.4846896260976791</v>
       </c>
       <c r="I127">
-        <v>0.5384297728538513</v>
+        <v>0.4932533393303553</v>
       </c>
       <c r="L127">
-        <v>40.85440888208992</v>
+        <v>43.42901586252447</v>
       </c>
       <c r="M127">
-        <v>42.8669678624489</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>41.22086102349975</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>0.527937114238739</v>
+        <v>0.4727155566215515</v>
       </c>
       <c r="C128">
-        <v>0.5293730497360229</v>
+        <v>0.4772199392318725</v>
       </c>
       <c r="D128">
-        <v>0.524847149848938</v>
+        <v>0.4708859622478485</v>
       </c>
       <c r="E128">
-        <v>0.5269182920455933</v>
+        <v>0.4720169007778168</v>
       </c>
       <c r="F128">
-        <v>692864</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>0.5348085340051244</v>
+        <v>0.481826654591861</v>
       </c>
       <c r="H128">
-        <v>0.5329382240772247</v>
+        <v>0.4824262216687202</v>
       </c>
       <c r="I128">
-        <v>0.5377494812011718</v>
+        <v>0.4924171060323715</v>
       </c>
       <c r="L128">
-        <v>39.66264708309978</v>
+        <v>42.87404511329029</v>
       </c>
       <c r="M128">
-        <v>42.16480352472678</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>40.87870125233552</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>0.5270706415176392</v>
+        <v>0.4719802141189575</v>
       </c>
       <c r="C129">
-        <v>0.5272493958473206</v>
+        <v>0.4770735502243042</v>
       </c>
       <c r="D129">
-        <v>0.5203138589859009</v>
+        <v>0.4695467054843902</v>
       </c>
       <c r="E129">
-        <v>0.5208867192268372</v>
+        <v>0.4763314127922058</v>
       </c>
       <c r="F129">
-        <v>5322528</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0.5335429144798256</v>
+        <v>0.4813270871555286</v>
       </c>
       <c r="H129">
-        <v>0.5320944428443909</v>
+        <v>0.4805197879672051</v>
       </c>
       <c r="I129">
-        <v>0.5369267662366232</v>
+        <v>0.4915241907040278</v>
       </c>
       <c r="L129">
-        <v>33.40982350216812</v>
+        <v>47.6075800895315</v>
       </c>
       <c r="M129">
-        <v>38.31072951028035</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>44.0233900166111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>0.5208832025527954</v>
+        <v>0.476302295923233</v>
       </c>
       <c r="C130">
-        <v>0.524188220500946</v>
+        <v>0.4764117300510406</v>
       </c>
       <c r="D130">
-        <v>0.5199445486068726</v>
+        <v>0.4700579345226288</v>
       </c>
       <c r="E130">
-        <v>0.524188220500946</v>
+        <v>0.4717952311038971</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130">
-        <v>0.5326924877544729</v>
+        <v>0.4804605547871985</v>
       </c>
       <c r="H130">
-        <v>0.5320038914680481</v>
+        <v>0.4785347193479538</v>
       </c>
       <c r="I130">
-        <v>0.5360788961251577</v>
+        <v>0.4904133061567942</v>
       </c>
       <c r="L130">
-        <v>39.30232809799085</v>
+        <v>43.35811922448197</v>
       </c>
       <c r="M130">
-        <v>41.46467085035613</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>41.52268441192182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>0.5242043733596802</v>
+        <v>0.4717981517314911</v>
       </c>
       <c r="C131">
-        <v>0.5249891877174377</v>
+        <v>0.4740648567676544</v>
       </c>
       <c r="D131">
-        <v>0.5157259106636047</v>
+        <v>0.4673083126544952</v>
       </c>
       <c r="E131">
-        <v>0.5163660645484924</v>
+        <v>0.4740648567676544</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>0.5312082674630201</v>
+        <v>0.4798791276945126</v>
       </c>
       <c r="H131">
-        <v>0.5309641867876053</v>
+        <v>0.4770789071917534</v>
       </c>
       <c r="I131">
-        <v>0.534997804959615</v>
+        <v>0.489049697915713</v>
       </c>
       <c r="L131">
-        <v>31.80156037113086</v>
+        <v>46.06782405140282</v>
       </c>
       <c r="M131">
-        <v>36.67979609643685</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>43.25937199538785</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>0.5164029598236084</v>
+        <v>0.4741036295890808</v>
       </c>
       <c r="C132">
-        <v>0.519589900970459</v>
+        <v>0.4830244779586792</v>
       </c>
       <c r="D132">
-        <v>0.5117465257644653</v>
+        <v>0.4702897071838379</v>
       </c>
       <c r="E132">
-        <v>0.519589900970459</v>
+        <v>0.4801417291164398</v>
       </c>
       <c r="F132">
-        <v>15168704</v>
+        <v>23692032</v>
       </c>
       <c r="G132">
-        <v>0.5301520523273328</v>
+        <v>0.4799030005510515</v>
       </c>
       <c r="H132">
-        <v>0.5300897419452667</v>
+        <v>0.4762688055634499</v>
       </c>
       <c r="I132">
-        <v>0.5339719951152802</v>
+        <v>0.4879045844078064</v>
       </c>
       <c r="L132">
-        <v>37.34573767799559</v>
+        <v>52.86059292099944</v>
       </c>
       <c r="M132">
-        <v>39.76492299686574</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>47.73501715089005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>0.5196032524108887</v>
+        <v>0.4799823462963104</v>
       </c>
       <c r="C133">
-        <v>0.5212799906730652</v>
+        <v>0.4806690216064453</v>
       </c>
       <c r="D133">
-        <v>0.4994441866874695</v>
+        <v>0.465677946805954</v>
       </c>
       <c r="E133">
-        <v>0.4994441866874695</v>
+        <v>0.4665261805057525</v>
       </c>
       <c r="F133">
-        <v>53167232</v>
+        <v>7476480</v>
       </c>
       <c r="G133">
-        <v>0.5273604281782542</v>
+        <v>0.4786869260014788</v>
       </c>
       <c r="H133">
-        <v>0.5282476454973221</v>
+        <v>0.4747033014893532</v>
       </c>
       <c r="I133">
-        <v>0.5323547422885895</v>
+        <v>0.4864227106173833</v>
       </c>
       <c r="L133">
-        <v>23.76421743464666</v>
+        <v>40.12272213884332</v>
       </c>
       <c r="M133">
-        <v>29.94599914761535</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>40.10242791924203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>0.4994182586669922</v>
+        <v>0.4664818048477173</v>
       </c>
       <c r="C134">
-        <v>0.5041846632957458</v>
+        <v>0.4694039225578308</v>
       </c>
       <c r="D134">
-        <v>0.4974594414234161</v>
+        <v>0.4598627984523773</v>
       </c>
       <c r="E134">
-        <v>0.5018849968910217</v>
+        <v>0.4686645865440368</v>
       </c>
       <c r="F134">
-        <v>34849472</v>
+        <v>4433760</v>
       </c>
       <c r="G134">
-        <v>0.5250444798794149</v>
+        <v>0.4777758042326204</v>
       </c>
       <c r="H134">
-        <v>0.5270807623863221</v>
+        <v>0.4734529763460159</v>
       </c>
       <c r="I134">
-        <v>0.5307726542154948</v>
+        <v>0.4850231677293778</v>
       </c>
       <c r="L134">
-        <v>27.364686000224</v>
+        <v>42.56798964544372</v>
       </c>
       <c r="M134">
-        <v>32.13255838379225</v>
-      </c>
-      <c r="N134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>41.67965633292945</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>0.5018820762634277</v>
+        <v>0.4686812460422516</v>
       </c>
       <c r="C135">
-        <v>0.5033048391342163</v>
+        <v>0.4686978757381439</v>
       </c>
       <c r="D135">
-        <v>0.4888988435268402</v>
+        <v>0.4652987420558929</v>
       </c>
       <c r="E135">
-        <v>0.4934073388576507</v>
+        <v>0.4665195345878601</v>
       </c>
       <c r="F135">
-        <v>31585504</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0.5221683761501636</v>
+        <v>0.4767525069921877</v>
       </c>
       <c r="H135">
-        <v>0.5250622376799583</v>
+        <v>0.4720661699771881</v>
       </c>
       <c r="I135">
-        <v>0.5290798336267472</v>
+        <v>0.4834095925092697</v>
       </c>
       <c r="L135">
-        <v>23.10149613576335</v>
+        <v>40.69264779971827</v>
       </c>
       <c r="M135">
-        <v>28.7732921342815</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>40.52683917009449</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>0.4934442043304443</v>
+        <v>0.4664718508720398</v>
       </c>
       <c r="C136">
-        <v>0.5003619790077209</v>
+        <v>0.4700891375541687</v>
       </c>
       <c r="D136">
-        <v>0.4934442043304443</v>
+        <v>0.4639556109905243</v>
       </c>
       <c r="E136">
-        <v>0.4994018971920013</v>
+        <v>0.4691346883773803</v>
       </c>
       <c r="F136">
-        <v>21263712</v>
+        <v>3660768</v>
       </c>
       <c r="G136">
-        <v>0.5200986962448761</v>
+        <v>0.4760599780272052</v>
       </c>
       <c r="H136">
-        <v>0.5236230999231338</v>
+        <v>0.4714302107691764</v>
       </c>
       <c r="I136">
-        <v>0.527516371011734</v>
+        <v>0.4818147053321202</v>
       </c>
       <c r="L136">
-        <v>31.58072734315072</v>
+        <v>44.07203725118964</v>
       </c>
       <c r="M136">
-        <v>34.0254921915794</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>42.61089735194846</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>0.4994236826896667</v>
+        <v>0.4691400527954101</v>
       </c>
       <c r="C137">
-        <v>0.5009319186210632</v>
+        <v>0.4722289144992828</v>
       </c>
       <c r="D137">
-        <v>0.4976414740085602</v>
+        <v>0.4682479500770569</v>
       </c>
       <c r="E137">
-        <v>0.5003516674041748</v>
+        <v>0.468301922082901</v>
       </c>
       <c r="F137">
-        <v>1188704</v>
+        <v>1409568</v>
       </c>
       <c r="G137">
-        <v>0.5183035118048124</v>
+        <v>0.4753547002140866</v>
       </c>
       <c r="H137">
-        <v>0.5219350725412368</v>
+        <v>0.4709266111254691</v>
       </c>
       <c r="I137">
-        <v>0.526019674539566</v>
+        <v>0.4802429854869842</v>
       </c>
       <c r="L137">
-        <v>32.89952467611175</v>
+        <v>43.19038919464577</v>
       </c>
       <c r="M137">
-        <v>34.84525922065205</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>42.10491864581385</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>0.5003544092178345</v>
+        <v>0.4682831764221191</v>
       </c>
       <c r="C138">
-        <v>0.5003544092178345</v>
+        <v>0.4832125008106231</v>
       </c>
       <c r="D138">
-        <v>0.488760381937027</v>
+        <v>0.4681247472763061</v>
       </c>
       <c r="E138">
-        <v>0.4889420866966247</v>
+        <v>0.4832125008106231</v>
       </c>
       <c r="F138">
-        <v>10924768</v>
+        <v>8462464</v>
       </c>
       <c r="G138">
-        <v>0.5156342913404317</v>
+        <v>0.4760690457228626</v>
       </c>
       <c r="H138">
-        <v>0.5197754353284836</v>
+        <v>0.4709166333079337</v>
       </c>
       <c r="I138">
-        <v>0.5241075853506724</v>
+        <v>0.4791072358687718</v>
       </c>
       <c r="L138">
-        <v>26.1004319449807</v>
+        <v>59.50716095705527</v>
       </c>
       <c r="M138">
-        <v>30.01961566817591</v>
-      </c>
-      <c r="N138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>52.89115759152059</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>0.4888440668582916</v>
+        <v>0.4832112193107605</v>
       </c>
       <c r="C139">
-        <v>0.4973934292793274</v>
+        <v>0.4864433705806732</v>
       </c>
       <c r="D139">
-        <v>0.4742743074893951</v>
+        <v>0.4802348613739013</v>
       </c>
       <c r="E139">
-        <v>0.4971038997173309</v>
+        <v>0.4854012131690979</v>
       </c>
       <c r="F139">
-        <v>31211104</v>
+        <v>9013024</v>
       </c>
       <c r="G139">
-        <v>0.5139497102837862</v>
+        <v>0.4769174245816113</v>
       </c>
       <c r="H139">
-        <v>0.5177883133292198</v>
+        <v>0.4714644506573676</v>
       </c>
       <c r="I139">
-        <v>0.5227523038784663</v>
+        <v>0.4781386067469914</v>
       </c>
       <c r="L139">
-        <v>36.63840161788404</v>
+        <v>61.3407925514936</v>
       </c>
       <c r="M139">
-        <v>36.76589831842373</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>54.23889036248011</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>0.4971450269222259</v>
+        <v>0.4854046702384949</v>
       </c>
       <c r="C140">
-        <v>0.5031188726425171</v>
+        <v>0.4896157383918762</v>
       </c>
       <c r="D140">
-        <v>0.4956430196762085</v>
+        <v>0.4827795624732971</v>
       </c>
       <c r="E140">
-        <v>0.5031188726425171</v>
+        <v>0.4829316437244415</v>
       </c>
       <c r="F140">
-        <v>8292288</v>
+        <v>21763328</v>
       </c>
       <c r="G140">
-        <v>0.5129650886800344</v>
+        <v>0.477464171776414</v>
       </c>
       <c r="H140">
-        <v>0.5158703371882438</v>
+        <v>0.4727780997753143</v>
       </c>
       <c r="I140">
-        <v>0.5219896246989568</v>
+        <v>0.4771864414215087</v>
       </c>
       <c r="L140">
-        <v>43.33741693999822</v>
+        <v>58.00655887075811</v>
       </c>
       <c r="M140">
-        <v>41.26010551293892</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>52.4167222095118</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>0.5031479001045227</v>
+        <v>0.4830053448677063</v>
       </c>
       <c r="C141">
-        <v>0.5089091658592224</v>
+        <v>0.4861006438732147</v>
       </c>
       <c r="D141">
-        <v>0.4996326267719269</v>
+        <v>0.4812107980251312</v>
       </c>
       <c r="E141">
-        <v>0.5051217675209045</v>
+        <v>0.4852688312530517</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>13566592</v>
       </c>
       <c r="G141">
-        <v>0.5122520594837499</v>
+        <v>0.4781736862742901</v>
       </c>
       <c r="H141">
-        <v>0.5141427025198937</v>
+        <v>0.4736593440175055</v>
       </c>
       <c r="I141">
-        <v>0.5209216783444087</v>
+        <v>0.4765893658002217</v>
       </c>
       <c r="L141">
-        <v>45.49610260111437</v>
+        <v>60.30386921743701</v>
       </c>
       <c r="M141">
-        <v>42.71997522091277</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>53.99203809146078</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>0.5051486492156982</v>
+        <v>0.4852631688117981</v>
       </c>
       <c r="C142">
-        <v>0.5168223977088928</v>
+        <v>0.4877120554447174</v>
       </c>
       <c r="D142">
-        <v>0.5051486492156982</v>
+        <v>0.4850863218307495</v>
       </c>
       <c r="E142">
-        <v>0.5149731040000916</v>
+        <v>0.4872815608978271</v>
       </c>
       <c r="F142">
-        <v>12958464</v>
+        <v>4690528</v>
       </c>
       <c r="G142">
-        <v>0.5124994271670537</v>
+        <v>0.4790016748764299</v>
       </c>
       <c r="H142">
-        <v>0.5131148353219033</v>
+        <v>0.4748221620917319</v>
       </c>
       <c r="I142">
-        <v>0.5201848218838374</v>
+        <v>0.4762872924407323</v>
       </c>
       <c r="L142">
-        <v>54.98543419653219</v>
+        <v>62.30189955063707</v>
       </c>
       <c r="M142">
-        <v>49.38337404140299</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>55.36256967407886</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>0.5148373246192932</v>
+        <v>0.487264484167099</v>
       </c>
       <c r="C143">
-        <v>0.5161892771720886</v>
+        <v>0.4876464307308197</v>
       </c>
       <c r="D143">
-        <v>0.5105311274528503</v>
+        <v>0.4788393378257751</v>
       </c>
       <c r="E143">
-        <v>0.5144951343536377</v>
+        <v>0.4794217050075531</v>
       </c>
       <c r="F143">
-        <v>32744320</v>
+        <v>5581600</v>
       </c>
       <c r="G143">
-        <v>0.5126808550931067</v>
+        <v>0.4790398594338047</v>
       </c>
       <c r="H143">
-        <v>0.5120551869273186</v>
+        <v>0.4749571606516837</v>
       </c>
       <c r="I143">
-        <v>0.5194584558407466</v>
+        <v>0.4756734738747278</v>
       </c>
       <c r="L143">
-        <v>54.46782051243856</v>
+        <v>51.02013215628276</v>
       </c>
       <c r="M143">
-        <v>49.08502033754817</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>49.19907766160719</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>0.5147067904472351</v>
+        <v>0.4794270992279053</v>
       </c>
       <c r="C144">
-        <v>0.5166653394699097</v>
+        <v>0.4815302491188049</v>
       </c>
       <c r="D144">
-        <v>0.5109823942184448</v>
+        <v>0.4769209921360016</v>
       </c>
       <c r="E144">
-        <v>0.5109823942184448</v>
+        <v>0.481344610452652</v>
       </c>
       <c r="F144">
-        <v>8710368</v>
+        <v>3374144</v>
       </c>
       <c r="G144">
-        <v>0.5125264495590465</v>
+        <v>0.4792493822536998</v>
       </c>
       <c r="H144">
-        <v>0.5111751690506935</v>
+        <v>0.4757645726203917</v>
       </c>
       <c r="I144">
-        <v>0.5189837803443272</v>
+        <v>0.4752625912427902</v>
       </c>
       <c r="L144">
-        <v>50.53462642495776</v>
+        <v>53.34536535045982</v>
       </c>
       <c r="M144">
-        <v>46.84503768043609</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>50.64669853550936</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>0.5109457969665527</v>
+        <v>0.4813958704471588</v>
       </c>
       <c r="C145">
-        <v>0.5122449994087219</v>
+        <v>0.4859245717525482</v>
       </c>
       <c r="D145">
-        <v>0.508267879486084</v>
+        <v>0.4813958704471588</v>
       </c>
       <c r="E145">
-        <v>0.5106508731842041</v>
+        <v>0.4853615164756775</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>0.512355942615879</v>
+        <v>0.4798050308193342</v>
       </c>
       <c r="H145">
-        <v>0.5100927338004112</v>
+        <v>0.4765677973628043</v>
       </c>
       <c r="I145">
-        <v>0.5182128816843032</v>
+        <v>0.4749661197264989</v>
       </c>
       <c r="L145">
-        <v>50.15012760559558</v>
+        <v>58.02804422774263</v>
       </c>
       <c r="M145">
-        <v>46.62876615005847</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>53.61995795164142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>0.5106499791145325</v>
+        <v>0.4853793680667877</v>
       </c>
       <c r="C146">
-        <v>0.5153571963310242</v>
+        <v>0.488188773393631</v>
       </c>
       <c r="D146">
-        <v>0.510439932346344</v>
+        <v>0.4841502010822296</v>
       </c>
       <c r="E146">
-        <v>0.5149267911911011</v>
+        <v>0.4879985153675079</v>
       </c>
       <c r="F146">
-        <v>5137120</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>0.5125896561227175</v>
+        <v>0.4805498930509863</v>
       </c>
       <c r="H146">
-        <v>0.5095365062355995</v>
+        <v>0.4772211283445357</v>
       </c>
       <c r="I146">
-        <v>0.5177709529797236</v>
+        <v>0.475170941154162</v>
       </c>
       <c r="L146">
-        <v>55.10646186533666</v>
+        <v>60.92454982403998</v>
       </c>
       <c r="M146">
-        <v>49.84503716773617</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>55.51464134529645</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>0.515005886554718</v>
+        <v>0.4879909157752991</v>
       </c>
       <c r="C147">
-        <v>0.5191031098365784</v>
+        <v>0.4895472824573517</v>
       </c>
       <c r="D147">
-        <v>0.5132045745849609</v>
+        <v>0.4857598543167114</v>
       </c>
       <c r="E147">
-        <v>0.516981303691864</v>
+        <v>0.4863015413284302</v>
       </c>
       <c r="F147">
-        <v>86080</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>0.5129888968108217</v>
+        <v>0.4810727701671175</v>
       </c>
       <c r="H147">
-        <v>0.5089867755770683</v>
+        <v>0.4779010340571402</v>
       </c>
       <c r="I147">
-        <v>0.5171999226013819</v>
+        <v>0.4754351953665415</v>
       </c>
       <c r="L147">
-        <v>57.39615496365596</v>
+        <v>58.02552447070907</v>
       </c>
       <c r="M147">
-        <v>51.36169607164419</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>53.9862361844973</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>0.5170592665672302</v>
+        <v>0.4863257110118866</v>
       </c>
       <c r="C148">
-        <v>0.5193753242492676</v>
+        <v>0.4956420660018921</v>
       </c>
       <c r="D148">
-        <v>0.5141723155975342</v>
+        <v>0.4860600531101227</v>
       </c>
       <c r="E148">
-        <v>0.5154535174369812</v>
+        <v>0.4956420660018921</v>
       </c>
       <c r="F148">
-        <v>2009696</v>
+        <v>14145136</v>
       </c>
       <c r="G148">
-        <v>0.5132129532313816</v>
+        <v>0.4823972516066425</v>
       </c>
       <c r="H148">
-        <v>0.5084135368466377</v>
+        <v>0.479082292318344</v>
       </c>
       <c r="I148">
-        <v>0.5166438788175582</v>
+        <v>0.4758428623278935</v>
       </c>
       <c r="L148">
-        <v>55.04740584067242</v>
+        <v>67.57854620208688</v>
       </c>
       <c r="M148">
-        <v>50.14730081575032</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>60.44197964080319</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>0.515453577041626</v>
+        <v>0.4956556558609009</v>
       </c>
       <c r="C149">
-        <v>0.5195667147636414</v>
+        <v>0.4995536804199219</v>
       </c>
       <c r="D149">
-        <v>0.5149784684181213</v>
+        <v>0.4938757419586181</v>
       </c>
       <c r="E149">
-        <v>0.5172849893569946</v>
+        <v>0.4938757419586181</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>36695696</v>
       </c>
       <c r="G149">
-        <v>0.5135831383337101</v>
+        <v>0.4834407507295493</v>
       </c>
       <c r="H149">
-        <v>0.5082334503531456</v>
+        <v>0.4799595087766647</v>
       </c>
       <c r="I149">
-        <v>0.5159918338060379</v>
+        <v>0.4764905581871668</v>
       </c>
       <c r="L149">
-        <v>57.39849429610891</v>
+        <v>64.45763449801049</v>
       </c>
       <c r="M149">
-        <v>51.62393722934489</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>58.76299689425098</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>0.5173245668411255</v>
+        <v>0.4938487708568573</v>
       </c>
       <c r="C150">
-        <v>0.5195180773735046</v>
+        <v>0.4993059635162353</v>
       </c>
       <c r="D150">
-        <v>0.5144600868225098</v>
+        <v>0.4927469193935394</v>
       </c>
       <c r="E150">
-        <v>0.5144600868225098</v>
+        <v>0.4960688352584839</v>
       </c>
       <c r="F150">
-        <v>424672</v>
+        <v>7873824</v>
       </c>
       <c r="G150">
-        <v>0.5136628609236009</v>
+        <v>0.4845887584139979</v>
       </c>
       <c r="H150">
-        <v>0.5077470436692237</v>
+        <v>0.481173188984394</v>
       </c>
       <c r="I150">
-        <v>0.5150912235180537</v>
+        <v>0.4778042306502659</v>
       </c>
       <c r="L150">
-        <v>52.62272570130875</v>
+        <v>66.61145441462462</v>
       </c>
       <c r="M150">
-        <v>49.20310180632433</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>60.2398161547806</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>0.5144678354263306</v>
+        <v>0.4959898591041565</v>
       </c>
       <c r="C151">
-        <v>0.5144678354263306</v>
+        <v>0.4962223470211029</v>
       </c>
       <c r="D151">
-        <v>0.5113962292671204</v>
+        <v>0.4901033937931061</v>
       </c>
       <c r="E151">
-        <v>0.5114966034889221</v>
+        <v>0.4912099838256836</v>
       </c>
       <c r="F151">
-        <v>4524672</v>
+        <v>24658496</v>
       </c>
       <c r="G151">
-        <v>0.5134659284295392</v>
+        <v>0.4851906879968784</v>
       </c>
       <c r="H151">
-        <v>0.5075035706162453</v>
+        <v>0.4820304453372954</v>
       </c>
       <c r="I151">
-        <v>0.5141519616047542</v>
+        <v>0.4785897652308145</v>
       </c>
       <c r="J151">
-        <v>0.5544228907426199</v>
+        <v>0.5182216586669286</v>
       </c>
       <c r="L151">
-        <v>47.9174209808327</v>
+        <v>57.87066657292518</v>
       </c>
       <c r="M151">
-        <v>46.7275562940177</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>55.4976572965668</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>0.5115006566047668</v>
+        <v>0.4912180304527282</v>
       </c>
       <c r="C152">
-        <v>0.5122119784355164</v>
+        <v>0.4936551451683044</v>
       </c>
       <c r="D152">
-        <v>0.5031810998916626</v>
+        <v>0.4862662255764007</v>
       </c>
       <c r="E152">
-        <v>0.5031810998916626</v>
+        <v>0.4865123927593231</v>
       </c>
       <c r="F152">
-        <v>2410560</v>
+        <v>12872576</v>
       </c>
       <c r="G152">
-        <v>0.5125309440170049</v>
+        <v>0.4853108429752824</v>
       </c>
       <c r="H152">
-        <v>0.5066831305623054</v>
+        <v>0.4823489785194396</v>
       </c>
       <c r="I152">
-        <v>0.5130736500024795</v>
+        <v>0.4793393383423487</v>
       </c>
       <c r="J152">
-        <v>0.5537441915260509</v>
+        <v>0.5178016683900067</v>
       </c>
       <c r="L152">
-        <v>37.36943516340271</v>
+        <v>50.64275112500896</v>
       </c>
       <c r="M152">
-        <v>40.56081343893671</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>51.2934811268246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>0.5031554698944092</v>
+        <v>0.4865094125270843</v>
       </c>
       <c r="C153">
-        <v>0.5050894021987915</v>
+        <v>0.4914379417896271</v>
       </c>
       <c r="D153">
-        <v>0.4952265918254852</v>
+        <v>0.4851523041725158</v>
       </c>
       <c r="E153">
-        <v>0.4963437616825104</v>
+        <v>0.489681601524353</v>
       </c>
       <c r="F153">
-        <v>17278176</v>
+        <v>11290592</v>
       </c>
       <c r="G153">
-        <v>0.5110593819865963</v>
+        <v>0.4857081846615616</v>
       </c>
       <c r="H153">
-        <v>0.5065281093120575</v>
+        <v>0.4835067495703697</v>
       </c>
       <c r="I153">
-        <v>0.5117621719837189</v>
+        <v>0.4797713339328765</v>
       </c>
       <c r="J153">
-        <v>0.5529839209320968</v>
+        <v>0.5174292171732431</v>
       </c>
       <c r="L153">
-        <v>31.04745489333449</v>
+        <v>54.91642239994921</v>
       </c>
       <c r="M153">
-        <v>36.31682813681981</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>53.83436819390846</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>0.4963444471359253</v>
+        <v>0.4897680878639221</v>
       </c>
       <c r="C154">
-        <v>0.50068598985672</v>
+        <v>0.4971067607402801</v>
       </c>
       <c r="D154">
-        <v>0.4937167167663574</v>
+        <v>0.4875114560127258</v>
       </c>
       <c r="E154">
-        <v>0.4978362619876861</v>
+        <v>0.494583785533905</v>
       </c>
       <c r="F154">
-        <v>13277168</v>
+        <v>5948256</v>
       </c>
       <c r="G154">
-        <v>0.5098572801685135</v>
+        <v>0.4865150574681382</v>
       </c>
       <c r="H154">
-        <v>0.5063256725668908</v>
+        <v>0.4848027095198632</v>
       </c>
       <c r="I154">
-        <v>0.5107372889916102</v>
+        <v>0.4807509144147237</v>
       </c>
       <c r="J154">
-        <v>0.5522534883632967</v>
+        <v>0.5171266286747088</v>
       </c>
       <c r="L154">
-        <v>33.79781046589103</v>
+        <v>60.81988904553741</v>
       </c>
       <c r="M154">
-        <v>37.84562907124335</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>57.52542522358834</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>0.4978293478488922</v>
+        <v>0.4945633709430694</v>
       </c>
       <c r="C155">
-        <v>0.4980672597885132</v>
+        <v>0.4945633709430694</v>
       </c>
       <c r="D155">
-        <v>0.4878982007503509</v>
+        <v>0.4875943660736084</v>
       </c>
       <c r="E155">
-        <v>0.4936710894107818</v>
+        <v>0.4877549111843109</v>
       </c>
       <c r="F155">
-        <v>41875696</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>0.508385808281447</v>
+        <v>0.4866277714423357</v>
       </c>
       <c r="H155">
-        <v>0.5063388600945473</v>
+        <v>0.4858644783496857</v>
       </c>
       <c r="I155">
-        <v>0.5094496726989746</v>
+        <v>0.4813661773999531</v>
       </c>
       <c r="J155">
-        <v>0.5514775625493561</v>
+        <v>0.5167375993039751</v>
       </c>
       <c r="L155">
-        <v>30.03634775261068</v>
+        <v>50.46409773924587</v>
       </c>
       <c r="M155">
-        <v>35.29885660196437</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>51.36458492633007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>0.4936183094978332</v>
+        <v>0.4877609610557556</v>
       </c>
       <c r="C156">
-        <v>0.498540312051773</v>
+        <v>0.4902806580066681</v>
       </c>
       <c r="D156">
-        <v>0.4887072741985321</v>
+        <v>0.4867071211338043</v>
       </c>
       <c r="E156">
-        <v>0.4942556619644165</v>
+        <v>0.4881176054477691</v>
       </c>
       <c r="F156">
-        <v>30489664</v>
+        <v>489664</v>
       </c>
       <c r="G156">
-        <v>0.5071012495253533</v>
+        <v>0.4867632108973751</v>
       </c>
       <c r="H156">
-        <v>0.506081548333168</v>
+        <v>0.4868136242032051</v>
       </c>
       <c r="I156">
-        <v>0.508389816681544</v>
+        <v>0.4818057010571161</v>
       </c>
       <c r="J156">
-        <v>0.5507196565813436</v>
+        <v>0.5163585265376678</v>
       </c>
       <c r="L156">
-        <v>31.24453257802791</v>
+        <v>50.96298882663002</v>
       </c>
       <c r="M156">
-        <v>35.95030732745592</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>51.66069742693394</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>0.4944271147251129</v>
+        <v>0.4879535436630249</v>
       </c>
       <c r="C157">
-        <v>0.4959342181682586</v>
+        <v>0.494547426700592</v>
       </c>
       <c r="D157">
-        <v>0.479404091835022</v>
+        <v>0.4855677187442779</v>
       </c>
       <c r="E157">
-        <v>0.4818538725376129</v>
+        <v>0.494547426700592</v>
       </c>
       <c r="F157">
-        <v>66448608</v>
+        <v>1967520</v>
       </c>
       <c r="G157">
-        <v>0.5048060334355586</v>
+        <v>0.4874708668794857</v>
       </c>
       <c r="H157">
-        <v>0.5051566585898399</v>
+        <v>0.4881258994340897</v>
       </c>
       <c r="I157">
-        <v>0.5068524152040481</v>
+        <v>0.4825338343779245</v>
       </c>
       <c r="J157">
-        <v>0.5498075269913604</v>
+        <v>0.5160696377981039</v>
       </c>
       <c r="L157">
-        <v>22.12544519943539</v>
+        <v>59.16513535701164</v>
       </c>
       <c r="M157">
-        <v>29.22698102062501</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>56.69443656183034</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>0.4817930161952972</v>
+        <v>0.4951088428497314</v>
       </c>
       <c r="C158">
-        <v>0.4885843992233276</v>
+        <v>0.5234653949737549</v>
       </c>
       <c r="D158">
-        <v>0.4780497252941131</v>
+        <v>0.4951088428497314</v>
       </c>
       <c r="E158">
-        <v>0.4783739149570465</v>
+        <v>0.521750807762146</v>
       </c>
       <c r="F158">
-        <v>40295136</v>
+        <v>106600416</v>
       </c>
       <c r="G158">
-        <v>0.5024031135738757</v>
+        <v>0.4905872251415457</v>
       </c>
       <c r="H158">
-        <v>0.504628250002861</v>
+        <v>0.4900528147816658</v>
       </c>
       <c r="I158">
-        <v>0.5052342693010966</v>
+        <v>0.4841916312774022</v>
       </c>
       <c r="J158">
-        <v>0.5488613864346145</v>
+        <v>0.5161448850823959</v>
       </c>
       <c r="L158">
-        <v>20.25891253678138</v>
+        <v>77.26499236466128</v>
       </c>
       <c r="M158">
-        <v>27.66360094174932</v>
-      </c>
-      <c r="N158" t="s">
+        <v>70.62953010622687</v>
+      </c>
+      <c r="O158" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>0.4784902930259704</v>
+        <v>0.5216787457466125</v>
       </c>
       <c r="C159">
-        <v>0.4853377342224121</v>
+        <v>0.5273020267486572</v>
       </c>
       <c r="D159">
-        <v>0.4784902930259704</v>
+        <v>0.5216787457466125</v>
       </c>
       <c r="E159">
-        <v>0.4834120571613312</v>
+        <v>0.5253214836120605</v>
       </c>
       <c r="F159">
-        <v>5360160</v>
+        <v>48209632</v>
       </c>
       <c r="G159">
-        <v>0.500676653900008</v>
+        <v>0.4937448850025016</v>
       </c>
       <c r="H159">
-        <v>0.503943657875061</v>
+        <v>0.4920488283038139</v>
       </c>
       <c r="I159">
-        <v>0.5039851138989131</v>
+        <v>0.485824633638064</v>
       </c>
       <c r="J159">
-        <v>0.5479945079011935</v>
+        <v>0.5162664294337822</v>
       </c>
       <c r="L159">
-        <v>29.89189555772963</v>
+        <v>78.66163479196538</v>
       </c>
       <c r="M159">
-        <v>33.2319974794107</v>
-      </c>
-      <c r="N159" t="s">
+        <v>71.90735417277119</v>
+      </c>
+      <c r="O159" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>0.4833269715309143</v>
+        <v>0.5252984762191772</v>
       </c>
       <c r="C160">
-        <v>0.4851427972316742</v>
+        <v>0.5357424020767212</v>
       </c>
       <c r="D160">
-        <v>0.4744406044483185</v>
+        <v>0.5236403346061707</v>
       </c>
       <c r="E160">
-        <v>0.4744448661804199</v>
+        <v>0.5311016440391541</v>
       </c>
       <c r="F160">
-        <v>8915040</v>
+        <v>57408736</v>
       </c>
       <c r="G160">
-        <v>0.4982919459255</v>
+        <v>0.4971409540058336</v>
       </c>
       <c r="H160">
-        <v>0.5025099575519562</v>
+        <v>0.4944573283195496</v>
       </c>
       <c r="I160">
-        <v>0.5023270020882289</v>
+        <v>0.4878015140692392</v>
       </c>
       <c r="J160">
-        <v>0.5470203404611833</v>
+        <v>0.5164629223424626</v>
       </c>
       <c r="L160">
-        <v>24.06968866724799</v>
+        <v>80.80866120594051</v>
       </c>
       <c r="M160">
-        <v>28.95904394367703</v>
-      </c>
-      <c r="N160" t="s">
+        <v>73.88786279357315</v>
+      </c>
+      <c r="O160" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>0.4744498431682586</v>
+        <v>0.5310592651367188</v>
       </c>
       <c r="C161">
-        <v>0.4755241274833679</v>
+        <v>0.5317214131355286</v>
       </c>
       <c r="D161">
-        <v>0.4556227624416351</v>
+        <v>0.5273423194885254</v>
       </c>
       <c r="E161">
-        <v>0.456658661365509</v>
+        <v>0.5289463996887207</v>
       </c>
       <c r="F161">
-        <v>68531840</v>
+        <v>24658752</v>
       </c>
       <c r="G161">
-        <v>0.4945071018745917</v>
+        <v>0.5000323581588233</v>
       </c>
       <c r="H161">
-        <v>0.5000868022441864</v>
+        <v>0.496641206741333</v>
       </c>
       <c r="I161">
-        <v>0.5003367553154627</v>
+        <v>0.4896308988332748</v>
       </c>
       <c r="J161">
-        <v>0.5458234970294525</v>
+        <v>0.516628266413274</v>
       </c>
       <c r="L161">
-        <v>16.77769988936029</v>
+        <v>77.53608869344737</v>
       </c>
       <c r="M161">
-        <v>22.71917087779653</v>
-      </c>
-      <c r="N161" t="s">
+        <v>71.85375087959973</v>
+      </c>
+      <c r="O161" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>0.4566946923732757</v>
+        <v>0.528944730758667</v>
       </c>
       <c r="C162">
-        <v>0.4693044424057007</v>
+        <v>0.5306350588798523</v>
       </c>
       <c r="D162">
-        <v>0.4496989250183105</v>
+        <v>0.5277003645896912</v>
       </c>
       <c r="E162">
-        <v>0.4676439464092254</v>
+        <v>0.5304012894630432</v>
       </c>
       <c r="F162">
-        <v>70164000</v>
+        <v>15304800</v>
       </c>
       <c r="G162">
-        <v>0.4920649968322857</v>
+        <v>0.5027931700955706</v>
       </c>
       <c r="H162">
-        <v>0.4977203443646431</v>
+        <v>0.4987971931695938</v>
       </c>
       <c r="I162">
-        <v>0.498605223496755</v>
+        <v>0.4913062175114949</v>
       </c>
       <c r="J162">
-        <v>0.5447880062927608</v>
+        <v>0.5168106905596286</v>
       </c>
       <c r="L162">
-        <v>31.24975844076368</v>
+        <v>78.20635492361508</v>
       </c>
       <c r="M162">
-        <v>32.40660027775223</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>72.40599953295876</v>
+      </c>
+      <c r="O162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>0.4674049615859985</v>
+        <v>0.5303694009780884</v>
       </c>
       <c r="C163">
-        <v>0.4703700542449951</v>
+        <v>0.5307281613349915</v>
       </c>
       <c r="D163">
-        <v>0.4633021056652069</v>
+        <v>0.516423761844635</v>
       </c>
       <c r="E163">
-        <v>0.4640251994132995</v>
+        <v>0.522738516330719</v>
       </c>
       <c r="F163">
-        <v>11264960</v>
+        <v>45059008</v>
       </c>
       <c r="G163">
-        <v>0.4895159243396506</v>
+        <v>0.5046063833896749</v>
       </c>
       <c r="H163">
-        <v>0.4951968476176262</v>
+        <v>0.5009630337357521</v>
       </c>
       <c r="I163">
-        <v>0.497424590587616</v>
+        <v>0.4931799620389938</v>
       </c>
       <c r="J163">
-        <v>0.5437183002413772</v>
+        <v>0.5168892048082523</v>
       </c>
       <c r="L163">
-        <v>29.35779212572305</v>
+        <v>66.45706732626819</v>
       </c>
       <c r="M163">
-        <v>31.02683312715084</v>
-      </c>
-      <c r="N163" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>65.15493134016887</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>0.4639700055122375</v>
+        <v>0.5226183533668518</v>
       </c>
       <c r="C164">
-        <v>0.4767217338085174</v>
+        <v>0.5230962634086609</v>
       </c>
       <c r="D164">
-        <v>0.4633508324623108</v>
+        <v>0.5167590975761414</v>
       </c>
       <c r="E164">
-        <v>0.4767217338085174</v>
+        <v>0.5200628638267517</v>
       </c>
       <c r="F164">
-        <v>821568</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>0.4883528161095476</v>
+        <v>0.5060115179748637</v>
       </c>
       <c r="H164">
-        <v>0.4934838145971298</v>
+        <v>0.5028989464044571</v>
       </c>
       <c r="I164">
-        <v>0.4965858151515325</v>
+        <v>0.4948932379484177</v>
       </c>
       <c r="J164">
-        <v>0.5428309285005447</v>
+        <v>0.5169312400270404</v>
       </c>
       <c r="L164">
-        <v>42.9831888175101</v>
+        <v>62.75363316148714</v>
       </c>
       <c r="M164">
-        <v>40.58510385795933</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>62.79037882123941</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>0.4767625629901886</v>
+        <v>0.520075261592865</v>
       </c>
       <c r="C165">
-        <v>0.4776602387428283</v>
+        <v>0.527667760848999</v>
       </c>
       <c r="D165">
-        <v>0.4651741981506347</v>
+        <v>0.5141577124595642</v>
       </c>
       <c r="E165">
-        <v>0.4651963710784912</v>
+        <v>0.514190137386322</v>
       </c>
       <c r="F165">
-        <v>17327680</v>
+        <v>7962912</v>
       </c>
       <c r="G165">
-        <v>0.4862476847430879</v>
+        <v>0.5067550288304508</v>
       </c>
       <c r="H165">
-        <v>0.4912110894918442</v>
+        <v>0.5043403774499893</v>
       </c>
       <c r="I165">
-        <v>0.4956454495588938</v>
+        <v>0.4964822580416997</v>
       </c>
       <c r="J165">
-        <v>0.5418026562168089</v>
+        <v>0.5168949340317991</v>
       </c>
       <c r="L165">
-        <v>35.90990508267193</v>
+        <v>55.16306277678486</v>
       </c>
       <c r="M165">
-        <v>35.74290029843865</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>57.82963427045672</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>0.4651481807231903</v>
+        <v>0.5140954852104187</v>
       </c>
       <c r="C166">
-        <v>0.4709661602973938</v>
+        <v>0.5147708058357239</v>
       </c>
       <c r="D166">
-        <v>0.4647815227508545</v>
+        <v>0.5077878832817078</v>
       </c>
       <c r="E166">
-        <v>0.4692970216274261</v>
+        <v>0.5122693181037903</v>
       </c>
       <c r="F166">
-        <v>15479936</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>0.4847067153689368</v>
+        <v>0.5072563278552997</v>
       </c>
       <c r="H166">
-        <v>0.4889296010136605</v>
+        <v>0.5055539175868035</v>
       </c>
       <c r="I166">
-        <v>0.4946419537067414</v>
+        <v>0.4979200790325801</v>
       </c>
       <c r="J166">
-        <v>0.5408423166858237</v>
+        <v>0.5168336675956665</v>
       </c>
       <c r="L166">
-        <v>39.87050252880866</v>
+        <v>52.81250172611519</v>
       </c>
       <c r="M166">
-        <v>38.55199889434784</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>56.26391068143655</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>0.4693318903446197</v>
+        <v>0.5122682452201843</v>
       </c>
       <c r="C167">
-        <v>0.4789560735225677</v>
+        <v>0.512328565120697</v>
       </c>
       <c r="D167">
-        <v>0.4676756560802459</v>
+        <v>0.5092786550521851</v>
       </c>
       <c r="E167">
-        <v>0.4749318957328796</v>
+        <v>0.5118557810783386</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>97824</v>
       </c>
       <c r="G167">
-        <v>0.4838180954020225</v>
+        <v>0.5076744599664851</v>
       </c>
       <c r="H167">
-        <v>0.4868271306157112</v>
+        <v>0.5068316295742988</v>
       </c>
       <c r="I167">
-        <v>0.4937946279843649</v>
+        <v>0.499371874332428</v>
       </c>
       <c r="J167">
-        <v>0.5399693309778377</v>
+        <v>0.5167677353239138</v>
       </c>
       <c r="L167">
-        <v>45.11393702409018</v>
+        <v>52.27301454988953</v>
       </c>
       <c r="M167">
-        <v>42.28574753934785</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>55.91292496971527</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>0.4749495983123779</v>
+        <v>0.5118489265441895</v>
       </c>
       <c r="C168">
-        <v>0.4766078591346741</v>
+        <v>0.5121344923973083</v>
       </c>
       <c r="D168">
-        <v>0.4697438478469848</v>
+        <v>0.4981603622436523</v>
       </c>
       <c r="E168">
-        <v>0.4727034270763397</v>
+        <v>0.5014606714248657</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>17892544</v>
       </c>
       <c r="G168">
-        <v>0.4828076710087785</v>
+        <v>0.5071095700990651</v>
       </c>
       <c r="H168">
-        <v>0.4846896260976791</v>
+        <v>0.5071225598454475</v>
       </c>
       <c r="I168">
-        <v>0.4932533393303553</v>
+        <v>0.4999801466862361</v>
       </c>
       <c r="J168">
-        <v>0.5390783918533145</v>
+        <v>0.5165649927557145</v>
       </c>
       <c r="L168">
-        <v>43.42900275012906</v>
+        <v>40.55705225330903</v>
       </c>
       <c r="M168">
-        <v>41.21904760832132</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>47.83492291530944</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>0.4727155566215515</v>
+        <v>0.5014855861663818</v>
       </c>
       <c r="C169">
-        <v>0.4772199392318725</v>
+        <v>0.5084346532821655</v>
       </c>
       <c r="D169">
-        <v>0.4708859622478485</v>
+        <v>0.4980475008487701</v>
       </c>
       <c r="E169">
-        <v>0.4720169007778168</v>
+        <v>0.5081955194473267</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>9840736</v>
       </c>
       <c r="G169">
-        <v>0.4818266918968729</v>
+        <v>0.5072082927670889</v>
       </c>
       <c r="H169">
-        <v>0.4824262216687202</v>
+        <v>0.507838548719883</v>
       </c>
       <c r="I169">
-        <v>0.4924171060323715</v>
+        <v>0.5007399568955103</v>
       </c>
       <c r="J169">
-        <v>0.5381901601834403</v>
+        <v>0.5164541388046101</v>
       </c>
       <c r="L169">
-        <v>42.87403245438376</v>
+        <v>48.90417966522977</v>
       </c>
       <c r="M169">
-        <v>40.87694060095914</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>52.61181300855534</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>0.4719802141189575</v>
+        <v>0.5082578659057617</v>
       </c>
       <c r="C170">
-        <v>0.4770735502243042</v>
+        <v>0.5192192792892456</v>
       </c>
       <c r="D170">
-        <v>0.4695467054843902</v>
+        <v>0.5063754320144653</v>
       </c>
       <c r="E170">
-        <v>0.4763314127922058</v>
+        <v>0.5126813650131226</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>40700064</v>
       </c>
       <c r="G170">
-        <v>0.4813271210691759</v>
+        <v>0.5077058447894556</v>
       </c>
       <c r="H170">
-        <v>0.4805197879672051</v>
+        <v>0.5086691752076149</v>
       </c>
       <c r="I170">
-        <v>0.4915241907040278</v>
+        <v>0.5017316142717997</v>
       </c>
       <c r="J170">
-        <v>0.5373708390259406</v>
+        <v>0.5164041682908156</v>
       </c>
       <c r="L170">
-        <v>47.60756624285944</v>
+        <v>53.76871852677395</v>
       </c>
       <c r="M170">
-        <v>44.02139483118797</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>55.53265331775741</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>0.476302295923233</v>
+        <v>0.512608528137207</v>
       </c>
       <c r="C171">
-        <v>0.4764117300510406</v>
+        <v>0.512608528137207</v>
       </c>
       <c r="D171">
-        <v>0.4700579345226288</v>
+        <v>0.4954006969928741</v>
       </c>
       <c r="E171">
-        <v>0.4717952311038971</v>
+        <v>0.4983552992343902</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>13550080</v>
       </c>
       <c r="G171">
-        <v>0.4804605856177869</v>
+        <v>0.5068557951935405</v>
       </c>
       <c r="H171">
-        <v>0.4785347193479538</v>
+        <v>0.5090264409780503</v>
       </c>
       <c r="I171">
-        <v>0.4904133061567942</v>
+        <v>0.5021678298711777</v>
       </c>
       <c r="J171">
-        <v>0.5365022879276354</v>
+        <v>0.5161651104225186</v>
       </c>
       <c r="L171">
-        <v>43.35810844249834</v>
+        <v>40.06457292721629</v>
       </c>
       <c r="M171">
-        <v>41.52104869644405</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>45.81958990525206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>0.4717981517314911</v>
+        <v>0.4982466399669647</v>
       </c>
       <c r="C172">
-        <v>0.4740648567676544</v>
+        <v>0.4988445937633514</v>
       </c>
       <c r="D172">
-        <v>0.4673083126544952</v>
+        <v>0.4871433973312378</v>
       </c>
       <c r="E172">
-        <v>0.4740648567676544</v>
+        <v>0.4915162622928619</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>17288128</v>
       </c>
       <c r="G172">
-        <v>0.4798791557223203</v>
+        <v>0.5054612922025697</v>
       </c>
       <c r="H172">
-        <v>0.4770789071917534</v>
+        <v>0.5092766344547272</v>
       </c>
       <c r="I172">
-        <v>0.489049697915713</v>
+        <v>0.5023089865843455</v>
       </c>
       <c r="J172">
-        <v>0.5356753020844569</v>
+        <v>0.5158386356128543</v>
       </c>
       <c r="L172">
-        <v>46.0678126748997</v>
+        <v>35.24078327165462</v>
       </c>
       <c r="M172">
-        <v>43.25761898620873</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>42.03937298431909</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>0.4741036295890808</v>
+        <v>0.4915151596069336</v>
       </c>
       <c r="C173">
-        <v>0.4830244779586792</v>
+        <v>0.4922306835651397</v>
       </c>
       <c r="D173">
-        <v>0.4702897071838379</v>
+        <v>0.4888700246810913</v>
       </c>
       <c r="E173">
-        <v>0.4801417291164398</v>
+        <v>0.4913727939128876</v>
       </c>
       <c r="F173">
-        <v>23692032</v>
+        <v>7282912</v>
       </c>
       <c r="G173">
-        <v>0.4799030260308765</v>
+        <v>0.5041805196307805</v>
       </c>
       <c r="H173">
-        <v>0.4762688055634499</v>
+        <v>0.5093611940741539</v>
       </c>
       <c r="I173">
-        <v>0.4879045844078064</v>
+        <v>0.5027073562145233</v>
       </c>
       <c r="J173">
-        <v>0.5349397580716355</v>
+        <v>0.515514584729411</v>
       </c>
       <c r="L173">
-        <v>52.86058054455037</v>
+        <v>35.14093170500012</v>
       </c>
       <c r="M173">
-        <v>47.73300866046784</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>41.96116358061967</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>0.4799823462963104</v>
+        <v>0.4912607669830322</v>
       </c>
       <c r="C174">
-        <v>0.4806690216064453</v>
+        <v>0.4945506155490875</v>
       </c>
       <c r="D174">
-        <v>0.465677946805954</v>
+        <v>0.4894410073757171</v>
       </c>
       <c r="E174">
-        <v>0.4665261805057525</v>
+        <v>0.4894410073757171</v>
       </c>
       <c r="F174">
-        <v>7476480</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>0.4786869491649562</v>
+        <v>0.5028405639712292</v>
       </c>
       <c r="H174">
-        <v>0.4747033014893532</v>
+        <v>0.5091040551662445</v>
       </c>
       <c r="I174">
-        <v>0.4864227106173833</v>
+        <v>0.5029772361119588</v>
       </c>
       <c r="J174">
-        <v>0.5340336179714251</v>
+        <v>0.5151692393339979</v>
       </c>
       <c r="L174">
-        <v>40.12271620748465</v>
+        <v>33.69473668817802</v>
       </c>
       <c r="M174">
-        <v>40.10130467154923</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>40.85892080650124</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>0.4664818048477173</v>
+        <v>0.4894431233406067</v>
       </c>
       <c r="C175">
-        <v>0.4694039225578308</v>
+        <v>0.4974187612533569</v>
       </c>
       <c r="D175">
-        <v>0.4598627984523773</v>
+        <v>0.4876596331596374</v>
       </c>
       <c r="E175">
-        <v>0.4686645865440368</v>
+        <v>0.4937633574008941</v>
       </c>
       <c r="F175">
-        <v>4433760</v>
+        <v>3502048</v>
       </c>
       <c r="G175">
-        <v>0.4777758252903271</v>
+        <v>0.5020153633739259</v>
       </c>
       <c r="H175">
-        <v>0.4734529763460159</v>
+        <v>0.5094044774770736</v>
       </c>
       <c r="I175">
-        <v>0.4850231677293778</v>
+        <v>0.5032572974761327</v>
       </c>
       <c r="J175">
-        <v>0.5331678029856319</v>
+        <v>0.5148857177189899</v>
       </c>
       <c r="L175">
-        <v>42.56798331872252</v>
+        <v>39.9186896962151</v>
       </c>
       <c r="M175">
-        <v>41.67844915815907</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>44.37946942827767</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>0.4686812460422516</v>
+        <v>0.4936489462852478</v>
       </c>
       <c r="C176">
-        <v>0.4686978757381439</v>
+        <v>0.4995540082454681</v>
       </c>
       <c r="D176">
-        <v>0.4652987420558929</v>
+        <v>0.4890715479850769</v>
       </c>
       <c r="E176">
-        <v>0.4665195345878601</v>
+        <v>0.4993397295475006</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>0.4767525261355574</v>
+        <v>0.50177212393516</v>
       </c>
       <c r="H176">
-        <v>0.4720661699771881</v>
+        <v>0.5099655836820602</v>
       </c>
       <c r="I176">
-        <v>0.4834095925092697</v>
+        <v>0.5036353379487991</v>
       </c>
       <c r="J176">
-        <v>0.5322850444638072</v>
+        <v>0.5146798105908907</v>
       </c>
       <c r="L176">
-        <v>40.69264221916269</v>
+        <v>47.12266474867558</v>
       </c>
       <c r="M176">
-        <v>40.52574604819851</v>
+        <v>48.62822884485049</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7037,37 +7025,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>0.4664718508720398</v>
+        <v>0.4993711113929748</v>
       </c>
       <c r="C177">
-        <v>0.4700891375541687</v>
+        <v>0.5073403716087341</v>
       </c>
       <c r="D177">
-        <v>0.4639556109905243</v>
+        <v>0.4987609386444092</v>
       </c>
       <c r="E177">
-        <v>0.4691346883773803</v>
+        <v>0.5069079399108887</v>
       </c>
       <c r="F177">
-        <v>3660768</v>
+        <v>14278752</v>
       </c>
       <c r="G177">
-        <v>0.4760599954302685</v>
+        <v>0.5022390162965898</v>
       </c>
       <c r="H177">
-        <v>0.4714302107691764</v>
+        <v>0.5105836093425751</v>
       </c>
       <c r="I177">
-        <v>0.4818147053321202</v>
+        <v>0.5043222179015477</v>
       </c>
       <c r="J177">
-        <v>0.531448615906371</v>
+        <v>0.5145768719063873</v>
       </c>
       <c r="L177">
-        <v>44.07203119428243</v>
+        <v>55.30513448486998</v>
       </c>
       <c r="M177">
-        <v>42.60970181475836</v>
+        <v>53.787759175666</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7075,37 +7063,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>0.4691400527954101</v>
+        <v>0.5070298314094543</v>
       </c>
       <c r="C178">
-        <v>0.4722289144992828</v>
+        <v>0.5113607048988342</v>
       </c>
       <c r="D178">
-        <v>0.4682479500770569</v>
+        <v>0.5061440467834473</v>
       </c>
       <c r="E178">
-        <v>0.468301922082901</v>
+        <v>0.50738525390625</v>
       </c>
       <c r="F178">
-        <v>1409568</v>
+        <v>6501088</v>
       </c>
       <c r="G178">
-        <v>0.4753547160350532</v>
+        <v>0.5027068560792862</v>
       </c>
       <c r="H178">
-        <v>0.4709266111254691</v>
+        <v>0.5098653316497803</v>
       </c>
       <c r="I178">
-        <v>0.4802429854869842</v>
+        <v>0.5047136574983597</v>
       </c>
       <c r="J178">
-        <v>0.530612235855729</v>
+        <v>0.5144816186878425</v>
       </c>
       <c r="L178">
-        <v>43.19038346199387</v>
+        <v>55.79052766952196</v>
       </c>
       <c r="M178">
-        <v>42.10377106254062</v>
+        <v>54.10086116342501</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7113,37 +7101,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>0.4682831764221191</v>
+        <v>0.5073931217193604</v>
       </c>
       <c r="C179">
-        <v>0.4832125008106231</v>
+        <v>0.5099484920501709</v>
       </c>
       <c r="D179">
-        <v>0.4681247472763061</v>
+        <v>0.5047329068183899</v>
       </c>
       <c r="E179">
-        <v>0.4832125008106231</v>
+        <v>0.5099484920501709</v>
       </c>
       <c r="F179">
-        <v>8462464</v>
+        <v>1061760</v>
       </c>
       <c r="G179">
-        <v>0.4760690601055596</v>
+        <v>0.503365186622094</v>
       </c>
       <c r="H179">
-        <v>0.4709166333079337</v>
+        <v>0.5090966820716858</v>
       </c>
       <c r="I179">
-        <v>0.4791072358687718</v>
+        <v>0.5052494158347448</v>
       </c>
       <c r="J179">
-        <v>0.529984424795529</v>
+        <v>0.514421577275423</v>
       </c>
       <c r="L179">
-        <v>59.50715419187457</v>
+        <v>58.51254064103897</v>
       </c>
       <c r="M179">
-        <v>52.88963821646996</v>
+        <v>55.83151715707338</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7151,37 +7139,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>0.4832112193107605</v>
+        <v>0.5099387764930725</v>
       </c>
       <c r="C180">
-        <v>0.4864433705806732</v>
+        <v>0.5234692096710205</v>
       </c>
       <c r="D180">
-        <v>0.4802348613739013</v>
+        <v>0.5082034468650818</v>
       </c>
       <c r="E180">
-        <v>0.4854012131690979</v>
+        <v>0.5182152390480042</v>
       </c>
       <c r="F180">
-        <v>9013024</v>
+        <v>68298752</v>
       </c>
       <c r="G180">
-        <v>0.4769174376567903</v>
+        <v>0.5047151913880857</v>
       </c>
       <c r="H180">
-        <v>0.4714644506573676</v>
+        <v>0.5084523618221283</v>
       </c>
       <c r="I180">
-        <v>0.4781386067469914</v>
+        <v>0.5059876292943954</v>
       </c>
       <c r="J180">
-        <v>0.5293939186812717</v>
+        <v>0.5144718244512189</v>
       </c>
       <c r="L180">
-        <v>61.34078580522848</v>
+        <v>66.08824954236897</v>
       </c>
       <c r="M180">
-        <v>54.23734337783607</v>
+        <v>60.94600397506267</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7189,37 +7177,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>0.4854046702384949</v>
+        <v>0.5182375311851501</v>
       </c>
       <c r="C181">
-        <v>0.4896157383918762</v>
+        <v>0.5194690823554993</v>
       </c>
       <c r="D181">
-        <v>0.4827795624732971</v>
+        <v>0.5077540278434753</v>
       </c>
       <c r="E181">
-        <v>0.4829316437244415</v>
+        <v>0.5171129703521729</v>
       </c>
       <c r="F181">
-        <v>21763328</v>
+        <v>31823520</v>
       </c>
       <c r="G181">
-        <v>0.4774641836629404</v>
+        <v>0.5058422622030028</v>
       </c>
       <c r="H181">
-        <v>0.4727780997753143</v>
+        <v>0.5078606903553009</v>
       </c>
       <c r="I181">
-        <v>0.4771864414215087</v>
+        <v>0.5068510621786118</v>
       </c>
       <c r="J181">
-        <v>0.5287785243109826</v>
+        <v>0.5145068065161321</v>
       </c>
       <c r="L181">
-        <v>58.00655298544081</v>
+        <v>64.3262727804844</v>
       </c>
       <c r="M181">
-        <v>52.41532006047772</v>
+        <v>59.94919836691846</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7227,37 +7215,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>0.4830053448677063</v>
+        <v>0.5171059966087341</v>
       </c>
       <c r="C182">
-        <v>0.4853300452232361</v>
+        <v>0.5188789963722229</v>
       </c>
       <c r="D182">
-        <v>0.4812107980251312</v>
+        <v>0.5171059966087341</v>
       </c>
       <c r="E182">
-        <v>0.482044368982315</v>
+        <v>0.5180016160011292</v>
       </c>
       <c r="F182">
-        <v>11500768</v>
+        <v>2779296</v>
       </c>
       <c r="G182">
-        <v>0.4778805641465199</v>
+        <v>0.5069476580028324</v>
       </c>
       <c r="H182">
-        <v>0.4734981209039687</v>
+        <v>0.5072407066822052</v>
       </c>
       <c r="I182">
-        <v>0.4764818837245305</v>
+        <v>0.5079007029533387</v>
       </c>
       <c r="J182">
-        <v>0.5281595288761658</v>
+        <v>0.5145530953834832</v>
       </c>
       <c r="L182">
-        <v>56.75952910943222</v>
+        <v>65.1685236680005</v>
       </c>
       <c r="M182">
-        <v>51.74276673002589</v>
+        <v>60.50996044215234</v>
       </c>
     </row>
   </sheetData>
